--- a/1전략기획실 제공 프로그램 ROI.xlsx
+++ b/1전략기획실 제공 프로그램 ROI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\지윤환\Desktop\develop_web\ToolBox_Enterprise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6ACEA55-4BBC-4C49-A778-1FFE66BA238C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B7245C3-A409-4418-9342-3EFBCC6BC763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="대시보드" sheetId="5" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="111">
   <si>
     <t>ROI</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -327,10 +327,6 @@
     <t>여러 엑셀 파일을 하나로 병합하는 기본 도구</t>
   </si>
   <si>
-    <t>네이버에서 스마트블록 정보를 수집하는 도구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>라이브 방송에서 호응을 위한 자동화 메크로</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -459,6 +455,9 @@
   <si>
     <t>https://eibe-technical-request.netlify.app/</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네이버에서 스마트블록 정보를 수집하는 도구</t>
   </si>
 </sst>
 </file>
@@ -624,7 +623,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -830,69 +829,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="hair">
         <color indexed="64"/>
       </top>
@@ -1014,49 +950,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1150,257 +1049,248 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="6" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="6" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="6" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="11" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="11" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="11" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="11" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="11" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="11" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2832,7 +2722,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'9月'!$J$51:$J$82</c:f>
+              <c:f>'9月'!$L$51:$L$82</c:f>
               <c:numCache>
                 <c:formatCode>"₩"#,##0;[Red]"₩"#,##0</c:formatCode>
                 <c:ptCount val="32"/>
@@ -2867,7 +2757,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>166632</c:v>
+                  <c:v>270777</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>41658</c:v>
@@ -4832,7 +4722,7 @@
       <xdr:rowOff>69273</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>639537</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>138546</xdr:rowOff>
@@ -5215,10 +5105,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="63"/>
+      <c r="C1" s="55"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B2" s="24" t="s">
@@ -5310,8 +5200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB24D4C3-4BCC-41B6-A92A-03CFAAF5CCE9}">
   <dimension ref="B1:H85"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.3"/>
@@ -5329,132 +5219,132 @@
   <sheetData>
     <row r="1" spans="2:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="80"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="69"/>
     </row>
     <row r="3" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="93" t="s">
+      <c r="B3" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="94"/>
-      <c r="D3" s="88" t="s">
+      <c r="C3" s="83"/>
+      <c r="D3" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="90"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="79"/>
     </row>
     <row r="4" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="66" t="s">
+      <c r="C4" s="57"/>
+      <c r="D4" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="68"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="60"/>
     </row>
     <row r="5" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="56" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="65"/>
-      <c r="D5" s="66" t="s">
+      <c r="C5" s="57"/>
+      <c r="D5" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="68"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="60"/>
     </row>
     <row r="6" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="64" t="s">
+      <c r="B6" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="65"/>
-      <c r="D6" s="66" t="s">
+      <c r="C6" s="57"/>
+      <c r="D6" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="68"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="60"/>
     </row>
     <row r="7" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="64" t="s">
+      <c r="B7" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="65"/>
-      <c r="D7" s="66" t="s">
+      <c r="C7" s="57"/>
+      <c r="D7" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="68"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="60"/>
     </row>
     <row r="8" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="64" t="s">
+      <c r="B8" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="65"/>
-      <c r="D8" s="66" t="s">
+      <c r="C8" s="57"/>
+      <c r="D8" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="68"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="60"/>
     </row>
     <row r="9" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="64" t="s">
+      <c r="B9" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="65"/>
-      <c r="D9" s="66" t="s">
+      <c r="C9" s="57"/>
+      <c r="D9" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="68"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="60"/>
     </row>
     <row r="10" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="64" t="s">
+      <c r="B10" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="65"/>
-      <c r="D10" s="66" t="s">
+      <c r="C10" s="57"/>
+      <c r="D10" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="68"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="60"/>
     </row>
     <row r="11" spans="2:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="91" t="s">
+      <c r="B11" s="80" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="92"/>
-      <c r="D11" s="95" t="s">
+      <c r="C11" s="81"/>
+      <c r="D11" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="96"/>
-      <c r="F11" s="96"/>
-      <c r="G11" s="96"/>
-      <c r="H11" s="97"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="86"/>
     </row>
     <row r="12" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="32"/>
@@ -5467,562 +5357,558 @@
     </row>
     <row r="13" spans="2:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="14" spans="2:8" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="75" t="s">
+      <c r="B14" s="98" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="76"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="76"/>
-      <c r="H14" s="77"/>
+      <c r="C14" s="99"/>
+      <c r="D14" s="99"/>
+      <c r="E14" s="99"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="99"/>
+      <c r="H14" s="100"/>
     </row>
     <row r="15" spans="2:8" ht="21" x14ac:dyDescent="0.3">
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="106" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="107" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="35" t="s">
+      <c r="D15" s="107" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="37"/>
+      <c r="E15" s="107"/>
+      <c r="F15" s="107"/>
+      <c r="G15" s="107"/>
+      <c r="H15" s="108"/>
     </row>
     <row r="16" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="39" t="s">
+      <c r="C16" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="101" t="s">
+      <c r="D16" s="104" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="102"/>
-      <c r="F16" s="102"/>
-      <c r="G16" s="102"/>
-      <c r="H16" s="103"/>
+      <c r="E16" s="104"/>
+      <c r="F16" s="104"/>
+      <c r="G16" s="104"/>
+      <c r="H16" s="109"/>
     </row>
     <row r="17" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="39" t="s">
+      <c r="C17" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="104" t="s">
+      <c r="D17" s="105" t="s">
         <v>60</v>
       </c>
       <c r="E17" s="105"/>
       <c r="F17" s="105"/>
       <c r="G17" s="105"/>
-      <c r="H17" s="106"/>
+      <c r="H17" s="110"/>
     </row>
     <row r="18" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="39" t="s">
+      <c r="C18" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="101" t="s">
+      <c r="D18" s="104" t="s">
         <v>61</v>
       </c>
-      <c r="E18" s="102"/>
-      <c r="F18" s="102"/>
-      <c r="G18" s="102"/>
-      <c r="H18" s="103"/>
+      <c r="E18" s="104"/>
+      <c r="F18" s="104"/>
+      <c r="G18" s="104"/>
+      <c r="H18" s="109"/>
     </row>
     <row r="19" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="39" t="s">
+      <c r="C19" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="101" t="s">
+      <c r="D19" s="104" t="s">
         <v>62</v>
       </c>
-      <c r="E19" s="102"/>
-      <c r="F19" s="102"/>
-      <c r="G19" s="102"/>
-      <c r="H19" s="103"/>
+      <c r="E19" s="104"/>
+      <c r="F19" s="104"/>
+      <c r="G19" s="104"/>
+      <c r="H19" s="109"/>
     </row>
     <row r="20" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="38" t="s">
+      <c r="B20" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="39" t="s">
+      <c r="C20" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="101" t="s">
+      <c r="D20" s="104" t="s">
         <v>63</v>
       </c>
-      <c r="E20" s="102"/>
-      <c r="F20" s="102"/>
-      <c r="G20" s="102"/>
-      <c r="H20" s="103"/>
-    </row>
-    <row r="21" spans="2:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="38" t="s">
+      <c r="E20" s="104"/>
+      <c r="F20" s="104"/>
+      <c r="G20" s="104"/>
+      <c r="H20" s="109"/>
+    </row>
+    <row r="21" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="39" t="s">
+      <c r="C21" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="107" t="s">
+      <c r="D21" s="104" t="s">
         <v>64</v>
       </c>
-      <c r="E21" s="108"/>
-      <c r="F21" s="108"/>
-      <c r="G21" s="108"/>
+      <c r="E21" s="104"/>
+      <c r="F21" s="104"/>
+      <c r="G21" s="104"/>
       <c r="H21" s="109"/>
     </row>
-    <row r="22" spans="2:8" ht="21" x14ac:dyDescent="0.3">
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="42"/>
-    </row>
-    <row r="23" spans="2:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="43"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="45"/>
-    </row>
-    <row r="24" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="78" t="s">
+    <row r="22" spans="2:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="104" t="s">
+        <v>110</v>
+      </c>
+      <c r="E22" s="104"/>
+      <c r="F22" s="104"/>
+      <c r="G22" s="104"/>
+      <c r="H22" s="109"/>
+    </row>
+    <row r="23" spans="2:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="111" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="112" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" s="112"/>
+      <c r="F23" s="112"/>
+      <c r="G23" s="112"/>
+      <c r="H23" s="113"/>
+    </row>
+    <row r="24" spans="2:8" ht="21" x14ac:dyDescent="0.3">
+      <c r="B24" s="101"/>
+      <c r="C24" s="101"/>
+      <c r="D24" s="102"/>
+      <c r="E24" s="102"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="102"/>
+      <c r="H24" s="103"/>
+    </row>
+    <row r="25" spans="2:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="37"/>
+    </row>
+    <row r="26" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="79"/>
-      <c r="D24" s="79"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="79"/>
-      <c r="G24" s="79"/>
-      <c r="H24" s="80"/>
-    </row>
-    <row r="25" spans="2:8" ht="21" x14ac:dyDescent="0.3">
-      <c r="B25" s="46" t="s">
+      <c r="C26" s="68"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="68"/>
+      <c r="H26" s="69"/>
+    </row>
+    <row r="27" spans="2:8" ht="21" x14ac:dyDescent="0.3">
+      <c r="B27" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="47" t="s">
+      <c r="C27" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="D25" s="88" t="s">
+      <c r="D27" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="E25" s="94"/>
-      <c r="F25" s="81" t="s">
+      <c r="E27" s="83"/>
+      <c r="F27" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="G25" s="81"/>
-      <c r="H25" s="82"/>
-    </row>
-    <row r="26" spans="2:8" s="50" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="B26" s="48" t="s">
+      <c r="G27" s="70"/>
+      <c r="H27" s="71"/>
+    </row>
+    <row r="28" spans="2:8" s="42" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+      <c r="B28" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="49" t="s">
+      <c r="C28" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="D26" s="66" t="s">
+      <c r="D28" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="E26" s="65"/>
-      <c r="F26" s="83" t="s">
-        <v>110</v>
-      </c>
-      <c r="G26" s="84"/>
-      <c r="H26" s="85"/>
-    </row>
-    <row r="27" spans="2:8" s="50" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="B27" s="48" t="s">
+      <c r="E28" s="57"/>
+      <c r="F28" s="72" t="s">
+        <v>109</v>
+      </c>
+      <c r="G28" s="73"/>
+      <c r="H28" s="74"/>
+    </row>
+    <row r="29" spans="2:8" s="42" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+      <c r="B29" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="51" t="s">
+      <c r="C29" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="D27" s="104" t="s">
+      <c r="D29" s="90" t="s">
         <v>69</v>
       </c>
-      <c r="E27" s="110"/>
-      <c r="F27" s="83" t="s">
-        <v>109</v>
-      </c>
-      <c r="G27" s="84"/>
-      <c r="H27" s="85"/>
-    </row>
-    <row r="28" spans="2:8" s="50" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="52" t="s">
+      <c r="E29" s="91"/>
+      <c r="F29" s="72" t="s">
+        <v>108</v>
+      </c>
+      <c r="G29" s="73"/>
+      <c r="H29" s="74"/>
+    </row>
+    <row r="30" spans="2:8" s="42" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="C28" s="53" t="s">
+      <c r="C30" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="D28" s="95" t="s">
+      <c r="D30" s="84" t="s">
         <v>72</v>
       </c>
-      <c r="E28" s="92"/>
-      <c r="F28" s="86"/>
-      <c r="G28" s="86"/>
-      <c r="H28" s="87"/>
-    </row>
-    <row r="30" spans="2:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="31" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="69" t="s">
+      <c r="E30" s="81"/>
+      <c r="F30" s="75"/>
+      <c r="G30" s="75"/>
+      <c r="H30" s="76"/>
+    </row>
+    <row r="32" spans="2:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="33" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="C31" s="70"/>
-      <c r="D31" s="70"/>
-      <c r="E31" s="70"/>
-      <c r="F31" s="70"/>
-      <c r="G31" s="70"/>
-      <c r="H31" s="71"/>
-    </row>
-    <row r="32" spans="2:8" ht="21" x14ac:dyDescent="0.3">
-      <c r="B32" s="46" t="s">
+      <c r="C33" s="62"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="63"/>
+    </row>
+    <row r="34" spans="2:8" ht="21" x14ac:dyDescent="0.3">
+      <c r="B34" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="C32" s="47" t="s">
+      <c r="C34" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="D32" s="47" t="s">
+      <c r="D34" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="E32" s="88" t="s">
+      <c r="E34" s="77" t="s">
         <v>74</v>
       </c>
-      <c r="F32" s="89"/>
-      <c r="G32" s="89"/>
-      <c r="H32" s="90"/>
-    </row>
-    <row r="33" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="54" t="s">
+      <c r="F34" s="78"/>
+      <c r="G34" s="78"/>
+      <c r="H34" s="79"/>
+    </row>
+    <row r="35" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="C33" s="49" t="s">
+      <c r="C35" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="D33" s="55" t="s">
+      <c r="D35" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="E33" s="72" t="s">
-        <v>108</v>
-      </c>
-      <c r="F33" s="73"/>
-      <c r="G33" s="73"/>
-      <c r="H33" s="74"/>
-    </row>
-    <row r="34" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="54" t="s">
+      <c r="E35" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="F35" s="65"/>
+      <c r="G35" s="65"/>
+      <c r="H35" s="66"/>
+    </row>
+    <row r="36" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="C34" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="D34" s="56" t="s">
+      <c r="C36" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="E34" s="72" t="s">
-        <v>108</v>
-      </c>
-      <c r="F34" s="73"/>
-      <c r="G34" s="73"/>
-      <c r="H34" s="74"/>
-    </row>
-    <row r="35" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="54" t="s">
+      <c r="E36" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="F36" s="65"/>
+      <c r="G36" s="65"/>
+      <c r="H36" s="66"/>
+    </row>
+    <row r="37" spans="2:8" ht="21" x14ac:dyDescent="0.3">
+      <c r="B37" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="C35" s="49" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="E35" s="72" t="s">
-        <v>108</v>
-      </c>
-      <c r="F35" s="73"/>
-      <c r="G35" s="73"/>
-      <c r="H35" s="74"/>
-    </row>
-    <row r="36" spans="2:8" ht="21" x14ac:dyDescent="0.3">
-      <c r="B36" s="54" t="s">
+      <c r="C37" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="E37" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="F37" s="65"/>
+      <c r="G37" s="65"/>
+      <c r="H37" s="66"/>
+    </row>
+    <row r="38" spans="2:8" ht="21" x14ac:dyDescent="0.3">
+      <c r="B38" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="C36" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="D36" s="56" t="s">
-        <v>79</v>
-      </c>
-      <c r="E36" s="72" t="s">
-        <v>108</v>
-      </c>
-      <c r="F36" s="73"/>
-      <c r="G36" s="73"/>
-      <c r="H36" s="74"/>
-    </row>
-    <row r="37" spans="2:8" ht="21" x14ac:dyDescent="0.3">
-      <c r="B37" s="54" t="s">
+      <c r="C38" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="D38" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="E38" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="F38" s="65"/>
+      <c r="G38" s="65"/>
+      <c r="H38" s="66"/>
+    </row>
+    <row r="39" spans="2:8" ht="21" x14ac:dyDescent="0.3">
+      <c r="B39" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="C37" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="D37" s="56" t="s">
-        <v>80</v>
-      </c>
-      <c r="E37" s="72" t="s">
-        <v>108</v>
-      </c>
-      <c r="F37" s="73"/>
-      <c r="G37" s="73"/>
-      <c r="H37" s="74"/>
-    </row>
-    <row r="38" spans="2:8" ht="21" x14ac:dyDescent="0.3">
-      <c r="B38" s="54" t="s">
+      <c r="C39" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="D39" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="E39" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="F39" s="65"/>
+      <c r="G39" s="65"/>
+      <c r="H39" s="66"/>
+    </row>
+    <row r="40" spans="2:8" ht="21" x14ac:dyDescent="0.3">
+      <c r="B40" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="C38" s="49" t="s">
-        <v>81</v>
-      </c>
-      <c r="D38" s="49" t="s">
-        <v>82</v>
-      </c>
-      <c r="E38" s="72" t="s">
-        <v>108</v>
-      </c>
-      <c r="F38" s="73"/>
-      <c r="G38" s="73"/>
-      <c r="H38" s="74"/>
-    </row>
-    <row r="39" spans="2:8" ht="21" x14ac:dyDescent="0.3">
-      <c r="B39" s="54" t="s">
+      <c r="C40" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="D40" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="E40" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="F40" s="65"/>
+      <c r="G40" s="65"/>
+      <c r="H40" s="66"/>
+    </row>
+    <row r="41" spans="2:8" ht="21" x14ac:dyDescent="0.3">
+      <c r="B41" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="C39" s="49" t="s">
-        <v>83</v>
-      </c>
-      <c r="D39" s="49" t="s">
-        <v>84</v>
-      </c>
-      <c r="E39" s="72" t="s">
-        <v>108</v>
-      </c>
-      <c r="F39" s="73"/>
-      <c r="G39" s="73"/>
-      <c r="H39" s="74"/>
-    </row>
-    <row r="40" spans="2:8" ht="21" x14ac:dyDescent="0.3">
-      <c r="B40" s="54" t="s">
+      <c r="C41" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="D41" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="E41" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="F41" s="65"/>
+      <c r="G41" s="65"/>
+      <c r="H41" s="66"/>
+    </row>
+    <row r="42" spans="2:8" ht="21" x14ac:dyDescent="0.3">
+      <c r="B42" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="C40" s="49" t="s">
-        <v>85</v>
-      </c>
-      <c r="D40" s="49" t="s">
-        <v>86</v>
-      </c>
-      <c r="E40" s="72" t="s">
-        <v>108</v>
-      </c>
-      <c r="F40" s="73"/>
-      <c r="G40" s="73"/>
-      <c r="H40" s="74"/>
-    </row>
-    <row r="41" spans="2:8" ht="21" x14ac:dyDescent="0.3">
-      <c r="B41" s="54" t="s">
+      <c r="C42" s="47" t="s">
+        <v>88</v>
+      </c>
+      <c r="D42" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="E42" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="F42" s="65"/>
+      <c r="G42" s="65"/>
+      <c r="H42" s="66"/>
+    </row>
+    <row r="43" spans="2:8" ht="21" x14ac:dyDescent="0.3">
+      <c r="B43" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="C41" s="55" t="s">
-        <v>87</v>
-      </c>
-      <c r="D41" s="55" t="s">
-        <v>88</v>
-      </c>
-      <c r="E41" s="72" t="s">
-        <v>108</v>
-      </c>
-      <c r="F41" s="73"/>
-      <c r="G41" s="73"/>
-      <c r="H41" s="74"/>
-    </row>
-    <row r="42" spans="2:8" ht="21" x14ac:dyDescent="0.3">
-      <c r="B42" s="54" t="s">
+      <c r="C43" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="D43" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="E43" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="F43" s="65"/>
+      <c r="G43" s="65"/>
+      <c r="H43" s="66"/>
+    </row>
+    <row r="44" spans="2:8" ht="21" x14ac:dyDescent="0.3">
+      <c r="B44" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="C42" s="55" t="s">
-        <v>89</v>
-      </c>
-      <c r="D42" s="55" t="s">
-        <v>90</v>
-      </c>
-      <c r="E42" s="72" t="s">
-        <v>108</v>
-      </c>
-      <c r="F42" s="73"/>
-      <c r="G42" s="73"/>
-      <c r="H42" s="74"/>
-    </row>
-    <row r="43" spans="2:8" ht="21" x14ac:dyDescent="0.3">
-      <c r="B43" s="54" t="s">
+      <c r="C44" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="D44" s="47" t="s">
+        <v>93</v>
+      </c>
+      <c r="E44" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="F44" s="65"/>
+      <c r="G44" s="65"/>
+      <c r="H44" s="66"/>
+    </row>
+    <row r="45" spans="2:8" ht="21" x14ac:dyDescent="0.3">
+      <c r="B45" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="C43" s="55" t="s">
-        <v>91</v>
-      </c>
-      <c r="D43" s="55" t="s">
-        <v>92</v>
-      </c>
-      <c r="E43" s="72" t="s">
-        <v>108</v>
-      </c>
-      <c r="F43" s="73"/>
-      <c r="G43" s="73"/>
-      <c r="H43" s="74"/>
-    </row>
-    <row r="44" spans="2:8" ht="21" x14ac:dyDescent="0.3">
-      <c r="B44" s="54" t="s">
+      <c r="C45" s="47" t="s">
+        <v>94</v>
+      </c>
+      <c r="D45" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="E45" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="F45" s="65"/>
+      <c r="G45" s="65"/>
+      <c r="H45" s="66"/>
+    </row>
+    <row r="46" spans="2:8" ht="21" x14ac:dyDescent="0.3">
+      <c r="B46" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="C44" s="55" t="s">
-        <v>93</v>
-      </c>
-      <c r="D44" s="55" t="s">
-        <v>94</v>
-      </c>
-      <c r="E44" s="72" t="s">
-        <v>108</v>
-      </c>
-      <c r="F44" s="73"/>
-      <c r="G44" s="73"/>
-      <c r="H44" s="74"/>
-    </row>
-    <row r="45" spans="2:8" ht="21" x14ac:dyDescent="0.3">
-      <c r="B45" s="54" t="s">
+      <c r="C46" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="D46" s="47" t="s">
+        <v>97</v>
+      </c>
+      <c r="E46" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="F46" s="65"/>
+      <c r="G46" s="65"/>
+      <c r="H46" s="66"/>
+    </row>
+    <row r="47" spans="2:8" ht="21" x14ac:dyDescent="0.3">
+      <c r="B47" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="C45" s="55" t="s">
-        <v>95</v>
-      </c>
-      <c r="D45" s="55" t="s">
-        <v>96</v>
-      </c>
-      <c r="E45" s="72" t="s">
-        <v>108</v>
-      </c>
-      <c r="F45" s="73"/>
-      <c r="G45" s="73"/>
-      <c r="H45" s="74"/>
-    </row>
-    <row r="46" spans="2:8" ht="21" x14ac:dyDescent="0.3">
-      <c r="B46" s="54" t="s">
+      <c r="C47" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="D47" s="47" t="s">
+        <v>99</v>
+      </c>
+      <c r="E47" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="F47" s="65"/>
+      <c r="G47" s="65"/>
+      <c r="H47" s="66"/>
+    </row>
+    <row r="48" spans="2:8" ht="21" x14ac:dyDescent="0.3">
+      <c r="B48" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="C46" s="55" t="s">
-        <v>97</v>
-      </c>
-      <c r="D46" s="55" t="s">
-        <v>98</v>
-      </c>
-      <c r="E46" s="72" t="s">
-        <v>108</v>
-      </c>
-      <c r="F46" s="73"/>
-      <c r="G46" s="73"/>
-      <c r="H46" s="74"/>
-    </row>
-    <row r="47" spans="2:8" ht="21" x14ac:dyDescent="0.3">
-      <c r="B47" s="54" t="s">
+      <c r="C48" s="47" t="s">
+        <v>100</v>
+      </c>
+      <c r="D48" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="E48" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="F48" s="65"/>
+      <c r="G48" s="65"/>
+      <c r="H48" s="66"/>
+    </row>
+    <row r="49" spans="2:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="C47" s="55" t="s">
-        <v>99</v>
-      </c>
-      <c r="D47" s="55" t="s">
-        <v>100</v>
-      </c>
-      <c r="E47" s="72" t="s">
-        <v>108</v>
-      </c>
-      <c r="F47" s="73"/>
-      <c r="G47" s="73"/>
-      <c r="H47" s="74"/>
-    </row>
-    <row r="48" spans="2:8" ht="21" x14ac:dyDescent="0.3">
-      <c r="B48" s="54" t="s">
+      <c r="C49" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="D49" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="E49" s="87" t="s">
+        <v>107</v>
+      </c>
+      <c r="F49" s="88"/>
+      <c r="G49" s="88"/>
+      <c r="H49" s="89"/>
+    </row>
+    <row r="80" spans="2:2" ht="21" x14ac:dyDescent="0.3">
+      <c r="B80" s="33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" ht="21" x14ac:dyDescent="0.3">
+      <c r="B81" s="51" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" ht="21" x14ac:dyDescent="0.3">
+      <c r="B82" s="52" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" ht="21" x14ac:dyDescent="0.3">
+      <c r="B83" s="52" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" ht="21" x14ac:dyDescent="0.3">
+      <c r="B84" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="C48" s="55" t="s">
-        <v>101</v>
-      </c>
-      <c r="D48" s="55" t="s">
-        <v>102</v>
-      </c>
-      <c r="E48" s="72" t="s">
-        <v>108</v>
-      </c>
-      <c r="F48" s="73"/>
-      <c r="G48" s="73"/>
-      <c r="H48" s="74"/>
-    </row>
-    <row r="49" spans="2:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="57" t="s">
-        <v>75</v>
-      </c>
-      <c r="C49" s="58" t="s">
-        <v>103</v>
-      </c>
-      <c r="D49" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="E49" s="98" t="s">
-        <v>108</v>
-      </c>
-      <c r="F49" s="99"/>
-      <c r="G49" s="99"/>
-      <c r="H49" s="100"/>
-    </row>
-    <row r="80" spans="2:2" ht="21" x14ac:dyDescent="0.3">
-      <c r="B80" s="38" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="81" spans="2:2" ht="21" x14ac:dyDescent="0.3">
-      <c r="B81" s="59" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="82" spans="2:2" ht="21" x14ac:dyDescent="0.3">
-      <c r="B82" s="60" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="83" spans="2:2" ht="21" x14ac:dyDescent="0.3">
-      <c r="B83" s="60" t="s">
+    </row>
+    <row r="85" spans="2:2" ht="21" x14ac:dyDescent="0.3">
+      <c r="B85" s="54" t="s">
         <v>106</v>
-      </c>
-    </row>
-    <row r="84" spans="2:2" ht="21" x14ac:dyDescent="0.3">
-      <c r="B84" s="61" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="85" spans="2:2" ht="21" x14ac:dyDescent="0.3">
-      <c r="B85" s="62" t="s">
-        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -6033,18 +5919,18 @@
     <mergeCell ref="D18:H18"/>
     <mergeCell ref="D19:H19"/>
     <mergeCell ref="D20:H20"/>
-    <mergeCell ref="D21:H21"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D23:H23"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="D21:H21"/>
     <mergeCell ref="D11:H11"/>
-    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="F29:H29"/>
     <mergeCell ref="E47:H47"/>
     <mergeCell ref="E48:H48"/>
     <mergeCell ref="E49:H49"/>
-    <mergeCell ref="E34:H34"/>
-    <mergeCell ref="E35:H35"/>
     <mergeCell ref="E36:H36"/>
     <mergeCell ref="E37:H37"/>
     <mergeCell ref="E38:H38"/>
@@ -6067,15 +5953,15 @@
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="D8:H8"/>
-    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B33:H33"/>
     <mergeCell ref="E46:H46"/>
     <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="F27:H27"/>
     <mergeCell ref="F28:H28"/>
-    <mergeCell ref="E32:H32"/>
-    <mergeCell ref="E33:H33"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="E34:H34"/>
+    <mergeCell ref="E35:H35"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="D9:H9"/>
     <mergeCell ref="B10:C10"/>
@@ -6084,28 +5970,26 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F26" r:id="rId1" xr:uid="{BFDC43CE-4F53-44BE-A885-C6F5846A6BF6}"/>
-    <hyperlink ref="F27" r:id="rId2" xr:uid="{8D51C4E4-E0BB-4594-8FB1-9E5AB545FD2A}"/>
-    <hyperlink ref="E33" r:id="rId3" xr:uid="{9B5D8082-01B8-4768-B05A-54F03A9C3D6E}"/>
-    <hyperlink ref="E34" r:id="rId4" xr:uid="{B0E2F116-ACA9-4E52-BF02-935CCC88598D}"/>
-    <hyperlink ref="E35" r:id="rId5" xr:uid="{D0B03D30-3D88-43AD-8663-9C2DFDA2EBEC}"/>
-    <hyperlink ref="E36" r:id="rId6" xr:uid="{047E1930-133E-4DC3-A8D6-77F6534770D1}"/>
-    <hyperlink ref="E37" r:id="rId7" xr:uid="{35CE7338-60DF-4E7B-9C27-F54637291D47}"/>
-    <hyperlink ref="E38" r:id="rId8" xr:uid="{B9C40DD3-00AC-46CF-B083-0C3ADE7EEDB0}"/>
-    <hyperlink ref="E39" r:id="rId9" xr:uid="{8D24348E-3B7E-43C6-857C-71B102474935}"/>
-    <hyperlink ref="E40" r:id="rId10" xr:uid="{B342CF0F-CE76-4D5E-8BC8-C722DF3488C0}"/>
-    <hyperlink ref="E41" r:id="rId11" xr:uid="{18CA622E-709E-4DF8-8303-554E1C95A2A2}"/>
-    <hyperlink ref="E42" r:id="rId12" xr:uid="{2ED9D719-2B30-4F02-A79B-38E79AAF8AAF}"/>
-    <hyperlink ref="E43" r:id="rId13" xr:uid="{7313763E-51C5-4148-9CF5-1C6ABD8CEF30}"/>
-    <hyperlink ref="E44" r:id="rId14" xr:uid="{567083D0-DFAD-43B4-B076-736601FAE5F8}"/>
-    <hyperlink ref="E45" r:id="rId15" xr:uid="{0FB56E5E-C9A4-47CD-9DC1-A80B446219DD}"/>
-    <hyperlink ref="E46" r:id="rId16" xr:uid="{DB05AA14-E893-4745-8D50-3E54447B9C2F}"/>
-    <hyperlink ref="E47" r:id="rId17" xr:uid="{7F32548A-87CA-426E-8DB2-D79FB29C4189}"/>
-    <hyperlink ref="E48" r:id="rId18" xr:uid="{AAE913D5-4CBE-4268-BA16-E0796C20931F}"/>
-    <hyperlink ref="E49" r:id="rId19" xr:uid="{330C11E9-A305-4788-8942-6EC19D0357B7}"/>
+    <hyperlink ref="F28" r:id="rId1" xr:uid="{BFDC43CE-4F53-44BE-A885-C6F5846A6BF6}"/>
+    <hyperlink ref="F29" r:id="rId2" xr:uid="{8D51C4E4-E0BB-4594-8FB1-9E5AB545FD2A}"/>
+    <hyperlink ref="E35" r:id="rId3" xr:uid="{9B5D8082-01B8-4768-B05A-54F03A9C3D6E}"/>
+    <hyperlink ref="E36" r:id="rId4" xr:uid="{D0B03D30-3D88-43AD-8663-9C2DFDA2EBEC}"/>
+    <hyperlink ref="E37" r:id="rId5" xr:uid="{35CE7338-60DF-4E7B-9C27-F54637291D47}"/>
+    <hyperlink ref="E38" r:id="rId6" xr:uid="{B9C40DD3-00AC-46CF-B083-0C3ADE7EEDB0}"/>
+    <hyperlink ref="E39" r:id="rId7" xr:uid="{8D24348E-3B7E-43C6-857C-71B102474935}"/>
+    <hyperlink ref="E40" r:id="rId8" xr:uid="{B342CF0F-CE76-4D5E-8BC8-C722DF3488C0}"/>
+    <hyperlink ref="E41" r:id="rId9" xr:uid="{18CA622E-709E-4DF8-8303-554E1C95A2A2}"/>
+    <hyperlink ref="E42" r:id="rId10" xr:uid="{2ED9D719-2B30-4F02-A79B-38E79AAF8AAF}"/>
+    <hyperlink ref="E43" r:id="rId11" xr:uid="{7313763E-51C5-4148-9CF5-1C6ABD8CEF30}"/>
+    <hyperlink ref="E44" r:id="rId12" xr:uid="{567083D0-DFAD-43B4-B076-736601FAE5F8}"/>
+    <hyperlink ref="E45" r:id="rId13" xr:uid="{0FB56E5E-C9A4-47CD-9DC1-A80B446219DD}"/>
+    <hyperlink ref="E46" r:id="rId14" xr:uid="{DB05AA14-E893-4745-8D50-3E54447B9C2F}"/>
+    <hyperlink ref="E47" r:id="rId15" xr:uid="{7F32548A-87CA-426E-8DB2-D79FB29C4189}"/>
+    <hyperlink ref="E48" r:id="rId16" xr:uid="{AAE913D5-4CBE-4268-BA16-E0796C20931F}"/>
+    <hyperlink ref="E49" r:id="rId17" xr:uid="{330C11E9-A305-4788-8942-6EC19D0357B7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId20"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId18"/>
 </worksheet>
 </file>
 
@@ -6140,761 +6024,761 @@
   <sheetData>
     <row r="1" spans="2:17" ht="18" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B2" s="111"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="113"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="94"/>
       <c r="P2" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B3" s="114"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="115"/>
-      <c r="J3" s="115"/>
-      <c r="K3" s="115"/>
-      <c r="L3" s="115"/>
-      <c r="M3" s="115"/>
-      <c r="N3" s="116"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="97"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B4" s="114"/>
-      <c r="C4" s="115"/>
-      <c r="D4" s="115"/>
-      <c r="E4" s="115"/>
-      <c r="F4" s="115"/>
-      <c r="G4" s="115"/>
-      <c r="H4" s="115"/>
-      <c r="I4" s="115"/>
-      <c r="J4" s="115"/>
-      <c r="K4" s="115"/>
-      <c r="L4" s="115"/>
-      <c r="M4" s="115"/>
-      <c r="N4" s="116"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="96"/>
+      <c r="L4" s="96"/>
+      <c r="M4" s="96"/>
+      <c r="N4" s="97"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B5" s="114"/>
-      <c r="C5" s="115"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="115"/>
-      <c r="F5" s="115"/>
-      <c r="G5" s="115"/>
-      <c r="H5" s="115"/>
-      <c r="I5" s="115"/>
-      <c r="J5" s="115"/>
-      <c r="K5" s="115"/>
-      <c r="L5" s="115"/>
-      <c r="M5" s="115"/>
-      <c r="N5" s="116"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="96"/>
+      <c r="I5" s="96"/>
+      <c r="J5" s="96"/>
+      <c r="K5" s="96"/>
+      <c r="L5" s="96"/>
+      <c r="M5" s="96"/>
+      <c r="N5" s="97"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B6" s="114"/>
-      <c r="C6" s="115"/>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="115"/>
-      <c r="K6" s="115"/>
-      <c r="L6" s="115"/>
-      <c r="M6" s="115"/>
-      <c r="N6" s="116"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="96"/>
+      <c r="J6" s="96"/>
+      <c r="K6" s="96"/>
+      <c r="L6" s="96"/>
+      <c r="M6" s="96"/>
+      <c r="N6" s="97"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B7" s="114"/>
-      <c r="C7" s="115"/>
-      <c r="D7" s="115"/>
-      <c r="E7" s="115"/>
-      <c r="F7" s="115"/>
-      <c r="G7" s="115"/>
-      <c r="H7" s="115"/>
-      <c r="I7" s="115"/>
-      <c r="J7" s="115"/>
-      <c r="K7" s="115"/>
-      <c r="L7" s="115"/>
-      <c r="M7" s="115"/>
-      <c r="N7" s="116"/>
+      <c r="B7" s="95"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="96"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="96"/>
+      <c r="K7" s="96"/>
+      <c r="L7" s="96"/>
+      <c r="M7" s="96"/>
+      <c r="N7" s="97"/>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B8" s="114"/>
-      <c r="C8" s="115"/>
-      <c r="D8" s="115"/>
-      <c r="E8" s="115"/>
-      <c r="F8" s="115"/>
-      <c r="G8" s="115"/>
-      <c r="H8" s="115"/>
-      <c r="I8" s="115"/>
-      <c r="J8" s="115"/>
-      <c r="K8" s="115"/>
-      <c r="L8" s="115"/>
-      <c r="M8" s="115"/>
-      <c r="N8" s="116"/>
+      <c r="B8" s="95"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="96"/>
+      <c r="H8" s="96"/>
+      <c r="I8" s="96"/>
+      <c r="J8" s="96"/>
+      <c r="K8" s="96"/>
+      <c r="L8" s="96"/>
+      <c r="M8" s="96"/>
+      <c r="N8" s="97"/>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B9" s="114"/>
-      <c r="C9" s="115"/>
-      <c r="D9" s="115"/>
-      <c r="E9" s="115"/>
-      <c r="F9" s="115"/>
-      <c r="G9" s="115"/>
-      <c r="H9" s="115"/>
-      <c r="I9" s="115"/>
-      <c r="J9" s="115"/>
-      <c r="K9" s="115"/>
-      <c r="L9" s="115"/>
-      <c r="M9" s="115"/>
-      <c r="N9" s="116"/>
+      <c r="B9" s="95"/>
+      <c r="C9" s="96"/>
+      <c r="D9" s="96"/>
+      <c r="E9" s="96"/>
+      <c r="F9" s="96"/>
+      <c r="G9" s="96"/>
+      <c r="H9" s="96"/>
+      <c r="I9" s="96"/>
+      <c r="J9" s="96"/>
+      <c r="K9" s="96"/>
+      <c r="L9" s="96"/>
+      <c r="M9" s="96"/>
+      <c r="N9" s="97"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B10" s="114"/>
-      <c r="C10" s="115"/>
-      <c r="D10" s="115"/>
-      <c r="E10" s="115"/>
-      <c r="F10" s="115"/>
-      <c r="G10" s="115"/>
-      <c r="H10" s="115"/>
-      <c r="I10" s="115"/>
-      <c r="J10" s="115"/>
-      <c r="K10" s="115"/>
-      <c r="L10" s="115"/>
-      <c r="M10" s="115"/>
-      <c r="N10" s="116"/>
+      <c r="B10" s="95"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="96"/>
+      <c r="E10" s="96"/>
+      <c r="F10" s="96"/>
+      <c r="G10" s="96"/>
+      <c r="H10" s="96"/>
+      <c r="I10" s="96"/>
+      <c r="J10" s="96"/>
+      <c r="K10" s="96"/>
+      <c r="L10" s="96"/>
+      <c r="M10" s="96"/>
+      <c r="N10" s="97"/>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B11" s="114"/>
-      <c r="C11" s="115"/>
-      <c r="D11" s="115"/>
-      <c r="E11" s="115"/>
-      <c r="F11" s="115"/>
-      <c r="G11" s="115"/>
-      <c r="H11" s="115"/>
-      <c r="I11" s="115"/>
-      <c r="J11" s="115"/>
-      <c r="K11" s="115"/>
-      <c r="L11" s="115"/>
-      <c r="M11" s="115"/>
-      <c r="N11" s="116"/>
+      <c r="B11" s="95"/>
+      <c r="C11" s="96"/>
+      <c r="D11" s="96"/>
+      <c r="E11" s="96"/>
+      <c r="F11" s="96"/>
+      <c r="G11" s="96"/>
+      <c r="H11" s="96"/>
+      <c r="I11" s="96"/>
+      <c r="J11" s="96"/>
+      <c r="K11" s="96"/>
+      <c r="L11" s="96"/>
+      <c r="M11" s="96"/>
+      <c r="N11" s="97"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B12" s="114"/>
-      <c r="C12" s="115"/>
-      <c r="D12" s="115"/>
-      <c r="E12" s="115"/>
-      <c r="F12" s="115"/>
-      <c r="G12" s="115"/>
-      <c r="H12" s="115"/>
-      <c r="I12" s="115"/>
-      <c r="J12" s="115"/>
-      <c r="K12" s="115"/>
-      <c r="L12" s="115"/>
-      <c r="M12" s="115"/>
-      <c r="N12" s="116"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="96"/>
+      <c r="D12" s="96"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="96"/>
+      <c r="G12" s="96"/>
+      <c r="H12" s="96"/>
+      <c r="I12" s="96"/>
+      <c r="J12" s="96"/>
+      <c r="K12" s="96"/>
+      <c r="L12" s="96"/>
+      <c r="M12" s="96"/>
+      <c r="N12" s="97"/>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B13" s="114"/>
-      <c r="C13" s="115"/>
-      <c r="D13" s="115"/>
-      <c r="E13" s="115"/>
-      <c r="F13" s="115"/>
-      <c r="G13" s="115"/>
-      <c r="H13" s="115"/>
-      <c r="I13" s="115"/>
-      <c r="J13" s="115"/>
-      <c r="K13" s="115"/>
-      <c r="L13" s="115"/>
-      <c r="M13" s="115"/>
-      <c r="N13" s="116"/>
+      <c r="B13" s="95"/>
+      <c r="C13" s="96"/>
+      <c r="D13" s="96"/>
+      <c r="E13" s="96"/>
+      <c r="F13" s="96"/>
+      <c r="G13" s="96"/>
+      <c r="H13" s="96"/>
+      <c r="I13" s="96"/>
+      <c r="J13" s="96"/>
+      <c r="K13" s="96"/>
+      <c r="L13" s="96"/>
+      <c r="M13" s="96"/>
+      <c r="N13" s="97"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B14" s="114"/>
-      <c r="C14" s="115"/>
-      <c r="D14" s="115"/>
-      <c r="E14" s="115"/>
-      <c r="F14" s="115"/>
-      <c r="G14" s="115"/>
-      <c r="H14" s="115"/>
-      <c r="I14" s="115"/>
-      <c r="J14" s="115"/>
-      <c r="K14" s="115"/>
-      <c r="L14" s="115"/>
-      <c r="M14" s="115"/>
-      <c r="N14" s="116"/>
+      <c r="B14" s="95"/>
+      <c r="C14" s="96"/>
+      <c r="D14" s="96"/>
+      <c r="E14" s="96"/>
+      <c r="F14" s="96"/>
+      <c r="G14" s="96"/>
+      <c r="H14" s="96"/>
+      <c r="I14" s="96"/>
+      <c r="J14" s="96"/>
+      <c r="K14" s="96"/>
+      <c r="L14" s="96"/>
+      <c r="M14" s="96"/>
+      <c r="N14" s="97"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B15" s="114"/>
-      <c r="C15" s="115"/>
-      <c r="D15" s="115"/>
-      <c r="E15" s="115"/>
-      <c r="F15" s="115"/>
-      <c r="G15" s="115"/>
-      <c r="H15" s="115"/>
-      <c r="I15" s="115"/>
-      <c r="J15" s="115"/>
-      <c r="K15" s="115"/>
-      <c r="L15" s="115"/>
-      <c r="M15" s="115"/>
-      <c r="N15" s="116"/>
+      <c r="B15" s="95"/>
+      <c r="C15" s="96"/>
+      <c r="D15" s="96"/>
+      <c r="E15" s="96"/>
+      <c r="F15" s="96"/>
+      <c r="G15" s="96"/>
+      <c r="H15" s="96"/>
+      <c r="I15" s="96"/>
+      <c r="J15" s="96"/>
+      <c r="K15" s="96"/>
+      <c r="L15" s="96"/>
+      <c r="M15" s="96"/>
+      <c r="N15" s="97"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B16" s="114"/>
-      <c r="C16" s="115"/>
-      <c r="D16" s="115"/>
-      <c r="E16" s="115"/>
-      <c r="F16" s="115"/>
-      <c r="G16" s="115"/>
-      <c r="H16" s="115"/>
-      <c r="I16" s="115"/>
-      <c r="J16" s="115"/>
-      <c r="K16" s="115"/>
-      <c r="L16" s="115"/>
-      <c r="M16" s="115"/>
-      <c r="N16" s="116"/>
+      <c r="B16" s="95"/>
+      <c r="C16" s="96"/>
+      <c r="D16" s="96"/>
+      <c r="E16" s="96"/>
+      <c r="F16" s="96"/>
+      <c r="G16" s="96"/>
+      <c r="H16" s="96"/>
+      <c r="I16" s="96"/>
+      <c r="J16" s="96"/>
+      <c r="K16" s="96"/>
+      <c r="L16" s="96"/>
+      <c r="M16" s="96"/>
+      <c r="N16" s="97"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B17" s="114"/>
-      <c r="C17" s="115"/>
-      <c r="D17" s="115"/>
-      <c r="E17" s="115"/>
-      <c r="F17" s="115"/>
-      <c r="G17" s="115"/>
-      <c r="H17" s="115"/>
-      <c r="I17" s="115"/>
-      <c r="J17" s="115"/>
-      <c r="K17" s="115"/>
-      <c r="L17" s="115"/>
-      <c r="M17" s="115"/>
-      <c r="N17" s="116"/>
+      <c r="B17" s="95"/>
+      <c r="C17" s="96"/>
+      <c r="D17" s="96"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="96"/>
+      <c r="H17" s="96"/>
+      <c r="I17" s="96"/>
+      <c r="J17" s="96"/>
+      <c r="K17" s="96"/>
+      <c r="L17" s="96"/>
+      <c r="M17" s="96"/>
+      <c r="N17" s="97"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B18" s="114"/>
-      <c r="C18" s="115"/>
-      <c r="D18" s="115"/>
-      <c r="E18" s="115"/>
-      <c r="F18" s="115"/>
-      <c r="G18" s="115"/>
-      <c r="H18" s="115"/>
-      <c r="I18" s="115"/>
-      <c r="J18" s="115"/>
-      <c r="K18" s="115"/>
-      <c r="L18" s="115"/>
-      <c r="M18" s="115"/>
-      <c r="N18" s="116"/>
+      <c r="B18" s="95"/>
+      <c r="C18" s="96"/>
+      <c r="D18" s="96"/>
+      <c r="E18" s="96"/>
+      <c r="F18" s="96"/>
+      <c r="G18" s="96"/>
+      <c r="H18" s="96"/>
+      <c r="I18" s="96"/>
+      <c r="J18" s="96"/>
+      <c r="K18" s="96"/>
+      <c r="L18" s="96"/>
+      <c r="M18" s="96"/>
+      <c r="N18" s="97"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B19" s="114"/>
-      <c r="C19" s="115"/>
-      <c r="D19" s="115"/>
-      <c r="E19" s="115"/>
-      <c r="F19" s="115"/>
-      <c r="G19" s="115"/>
-      <c r="H19" s="115"/>
-      <c r="I19" s="115"/>
-      <c r="J19" s="115"/>
-      <c r="K19" s="115"/>
-      <c r="L19" s="115"/>
-      <c r="M19" s="115"/>
-      <c r="N19" s="116"/>
+      <c r="B19" s="95"/>
+      <c r="C19" s="96"/>
+      <c r="D19" s="96"/>
+      <c r="E19" s="96"/>
+      <c r="F19" s="96"/>
+      <c r="G19" s="96"/>
+      <c r="H19" s="96"/>
+      <c r="I19" s="96"/>
+      <c r="J19" s="96"/>
+      <c r="K19" s="96"/>
+      <c r="L19" s="96"/>
+      <c r="M19" s="96"/>
+      <c r="N19" s="97"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B20" s="114"/>
-      <c r="C20" s="115"/>
-      <c r="D20" s="115"/>
-      <c r="E20" s="115"/>
-      <c r="F20" s="115"/>
-      <c r="G20" s="115"/>
-      <c r="H20" s="115"/>
-      <c r="I20" s="115"/>
-      <c r="J20" s="115"/>
-      <c r="K20" s="115"/>
-      <c r="L20" s="115"/>
-      <c r="M20" s="115"/>
-      <c r="N20" s="116"/>
+      <c r="B20" s="95"/>
+      <c r="C20" s="96"/>
+      <c r="D20" s="96"/>
+      <c r="E20" s="96"/>
+      <c r="F20" s="96"/>
+      <c r="G20" s="96"/>
+      <c r="H20" s="96"/>
+      <c r="I20" s="96"/>
+      <c r="J20" s="96"/>
+      <c r="K20" s="96"/>
+      <c r="L20" s="96"/>
+      <c r="M20" s="96"/>
+      <c r="N20" s="97"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B21" s="114"/>
-      <c r="C21" s="115"/>
-      <c r="D21" s="115"/>
-      <c r="E21" s="115"/>
-      <c r="F21" s="115"/>
-      <c r="G21" s="115"/>
-      <c r="H21" s="115"/>
-      <c r="I21" s="115"/>
-      <c r="J21" s="115"/>
-      <c r="K21" s="115"/>
-      <c r="L21" s="115"/>
-      <c r="M21" s="115"/>
-      <c r="N21" s="116"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="96"/>
+      <c r="E21" s="96"/>
+      <c r="F21" s="96"/>
+      <c r="G21" s="96"/>
+      <c r="H21" s="96"/>
+      <c r="I21" s="96"/>
+      <c r="J21" s="96"/>
+      <c r="K21" s="96"/>
+      <c r="L21" s="96"/>
+      <c r="M21" s="96"/>
+      <c r="N21" s="97"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B22" s="114"/>
-      <c r="C22" s="115"/>
-      <c r="D22" s="115"/>
-      <c r="E22" s="115"/>
-      <c r="F22" s="115"/>
-      <c r="G22" s="115"/>
-      <c r="H22" s="115"/>
-      <c r="I22" s="115"/>
-      <c r="J22" s="115"/>
-      <c r="K22" s="115"/>
-      <c r="L22" s="115"/>
-      <c r="M22" s="115"/>
-      <c r="N22" s="116"/>
+      <c r="B22" s="95"/>
+      <c r="C22" s="96"/>
+      <c r="D22" s="96"/>
+      <c r="E22" s="96"/>
+      <c r="F22" s="96"/>
+      <c r="G22" s="96"/>
+      <c r="H22" s="96"/>
+      <c r="I22" s="96"/>
+      <c r="J22" s="96"/>
+      <c r="K22" s="96"/>
+      <c r="L22" s="96"/>
+      <c r="M22" s="96"/>
+      <c r="N22" s="97"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B23" s="114"/>
-      <c r="C23" s="115"/>
-      <c r="D23" s="115"/>
-      <c r="E23" s="115"/>
-      <c r="F23" s="115"/>
-      <c r="G23" s="115"/>
-      <c r="H23" s="115"/>
-      <c r="I23" s="115"/>
-      <c r="J23" s="115"/>
-      <c r="K23" s="115"/>
-      <c r="L23" s="115"/>
-      <c r="M23" s="115"/>
-      <c r="N23" s="116"/>
+      <c r="B23" s="95"/>
+      <c r="C23" s="96"/>
+      <c r="D23" s="96"/>
+      <c r="E23" s="96"/>
+      <c r="F23" s="96"/>
+      <c r="G23" s="96"/>
+      <c r="H23" s="96"/>
+      <c r="I23" s="96"/>
+      <c r="J23" s="96"/>
+      <c r="K23" s="96"/>
+      <c r="L23" s="96"/>
+      <c r="M23" s="96"/>
+      <c r="N23" s="97"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B24" s="114"/>
-      <c r="C24" s="115"/>
-      <c r="D24" s="115"/>
-      <c r="E24" s="115"/>
-      <c r="F24" s="115"/>
-      <c r="G24" s="115"/>
-      <c r="H24" s="115"/>
-      <c r="I24" s="115"/>
-      <c r="J24" s="115"/>
-      <c r="K24" s="115"/>
-      <c r="L24" s="115"/>
-      <c r="M24" s="115"/>
-      <c r="N24" s="116"/>
+      <c r="B24" s="95"/>
+      <c r="C24" s="96"/>
+      <c r="D24" s="96"/>
+      <c r="E24" s="96"/>
+      <c r="F24" s="96"/>
+      <c r="G24" s="96"/>
+      <c r="H24" s="96"/>
+      <c r="I24" s="96"/>
+      <c r="J24" s="96"/>
+      <c r="K24" s="96"/>
+      <c r="L24" s="96"/>
+      <c r="M24" s="96"/>
+      <c r="N24" s="97"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B25" s="114"/>
-      <c r="C25" s="115"/>
-      <c r="D25" s="115"/>
-      <c r="E25" s="115"/>
-      <c r="F25" s="115"/>
-      <c r="G25" s="115"/>
-      <c r="H25" s="115"/>
-      <c r="I25" s="115"/>
-      <c r="J25" s="115"/>
-      <c r="K25" s="115"/>
-      <c r="L25" s="115"/>
-      <c r="M25" s="115"/>
-      <c r="N25" s="116"/>
+      <c r="B25" s="95"/>
+      <c r="C25" s="96"/>
+      <c r="D25" s="96"/>
+      <c r="E25" s="96"/>
+      <c r="F25" s="96"/>
+      <c r="G25" s="96"/>
+      <c r="H25" s="96"/>
+      <c r="I25" s="96"/>
+      <c r="J25" s="96"/>
+      <c r="K25" s="96"/>
+      <c r="L25" s="96"/>
+      <c r="M25" s="96"/>
+      <c r="N25" s="97"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B26" s="114"/>
-      <c r="C26" s="115"/>
-      <c r="D26" s="115"/>
-      <c r="E26" s="115"/>
-      <c r="F26" s="115"/>
-      <c r="G26" s="115"/>
-      <c r="H26" s="115"/>
-      <c r="I26" s="115"/>
-      <c r="J26" s="115"/>
-      <c r="K26" s="115"/>
-      <c r="L26" s="115"/>
-      <c r="M26" s="115"/>
-      <c r="N26" s="116"/>
+      <c r="B26" s="95"/>
+      <c r="C26" s="96"/>
+      <c r="D26" s="96"/>
+      <c r="E26" s="96"/>
+      <c r="F26" s="96"/>
+      <c r="G26" s="96"/>
+      <c r="H26" s="96"/>
+      <c r="I26" s="96"/>
+      <c r="J26" s="96"/>
+      <c r="K26" s="96"/>
+      <c r="L26" s="96"/>
+      <c r="M26" s="96"/>
+      <c r="N26" s="97"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B27" s="114"/>
-      <c r="C27" s="115"/>
-      <c r="D27" s="115"/>
-      <c r="E27" s="115"/>
-      <c r="F27" s="115"/>
-      <c r="G27" s="115"/>
-      <c r="H27" s="115"/>
-      <c r="I27" s="115"/>
-      <c r="J27" s="115"/>
-      <c r="K27" s="115"/>
-      <c r="L27" s="115"/>
-      <c r="M27" s="115"/>
-      <c r="N27" s="116"/>
+      <c r="B27" s="95"/>
+      <c r="C27" s="96"/>
+      <c r="D27" s="96"/>
+      <c r="E27" s="96"/>
+      <c r="F27" s="96"/>
+      <c r="G27" s="96"/>
+      <c r="H27" s="96"/>
+      <c r="I27" s="96"/>
+      <c r="J27" s="96"/>
+      <c r="K27" s="96"/>
+      <c r="L27" s="96"/>
+      <c r="M27" s="96"/>
+      <c r="N27" s="97"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B28" s="114"/>
-      <c r="C28" s="115"/>
-      <c r="D28" s="115"/>
-      <c r="E28" s="115"/>
-      <c r="F28" s="115"/>
-      <c r="G28" s="115"/>
-      <c r="H28" s="115"/>
-      <c r="I28" s="115"/>
-      <c r="J28" s="115"/>
-      <c r="K28" s="115"/>
-      <c r="L28" s="115"/>
-      <c r="M28" s="115"/>
-      <c r="N28" s="116"/>
+      <c r="B28" s="95"/>
+      <c r="C28" s="96"/>
+      <c r="D28" s="96"/>
+      <c r="E28" s="96"/>
+      <c r="F28" s="96"/>
+      <c r="G28" s="96"/>
+      <c r="H28" s="96"/>
+      <c r="I28" s="96"/>
+      <c r="J28" s="96"/>
+      <c r="K28" s="96"/>
+      <c r="L28" s="96"/>
+      <c r="M28" s="96"/>
+      <c r="N28" s="97"/>
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B29" s="114"/>
-      <c r="C29" s="115"/>
-      <c r="D29" s="115"/>
-      <c r="E29" s="115"/>
-      <c r="F29" s="115"/>
-      <c r="G29" s="115"/>
-      <c r="H29" s="115"/>
-      <c r="I29" s="115"/>
-      <c r="J29" s="115"/>
-      <c r="K29" s="115"/>
-      <c r="L29" s="115"/>
-      <c r="M29" s="115"/>
-      <c r="N29" s="116"/>
+      <c r="B29" s="95"/>
+      <c r="C29" s="96"/>
+      <c r="D29" s="96"/>
+      <c r="E29" s="96"/>
+      <c r="F29" s="96"/>
+      <c r="G29" s="96"/>
+      <c r="H29" s="96"/>
+      <c r="I29" s="96"/>
+      <c r="J29" s="96"/>
+      <c r="K29" s="96"/>
+      <c r="L29" s="96"/>
+      <c r="M29" s="96"/>
+      <c r="N29" s="97"/>
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B30" s="114"/>
-      <c r="C30" s="115"/>
-      <c r="D30" s="115"/>
-      <c r="E30" s="115"/>
-      <c r="F30" s="115"/>
-      <c r="G30" s="115"/>
-      <c r="H30" s="115"/>
-      <c r="I30" s="115"/>
-      <c r="J30" s="115"/>
-      <c r="K30" s="115"/>
-      <c r="L30" s="115"/>
-      <c r="M30" s="115"/>
-      <c r="N30" s="116"/>
+      <c r="B30" s="95"/>
+      <c r="C30" s="96"/>
+      <c r="D30" s="96"/>
+      <c r="E30" s="96"/>
+      <c r="F30" s="96"/>
+      <c r="G30" s="96"/>
+      <c r="H30" s="96"/>
+      <c r="I30" s="96"/>
+      <c r="J30" s="96"/>
+      <c r="K30" s="96"/>
+      <c r="L30" s="96"/>
+      <c r="M30" s="96"/>
+      <c r="N30" s="97"/>
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B31" s="114"/>
-      <c r="C31" s="115"/>
-      <c r="D31" s="115"/>
-      <c r="E31" s="115"/>
-      <c r="F31" s="115"/>
-      <c r="G31" s="115"/>
-      <c r="H31" s="115"/>
-      <c r="I31" s="115"/>
-      <c r="J31" s="115"/>
-      <c r="K31" s="115"/>
-      <c r="L31" s="115"/>
-      <c r="M31" s="115"/>
-      <c r="N31" s="116"/>
+      <c r="B31" s="95"/>
+      <c r="C31" s="96"/>
+      <c r="D31" s="96"/>
+      <c r="E31" s="96"/>
+      <c r="F31" s="96"/>
+      <c r="G31" s="96"/>
+      <c r="H31" s="96"/>
+      <c r="I31" s="96"/>
+      <c r="J31" s="96"/>
+      <c r="K31" s="96"/>
+      <c r="L31" s="96"/>
+      <c r="M31" s="96"/>
+      <c r="N31" s="97"/>
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B32" s="114"/>
-      <c r="C32" s="115"/>
-      <c r="D32" s="115"/>
-      <c r="E32" s="115"/>
-      <c r="F32" s="115"/>
-      <c r="G32" s="115"/>
-      <c r="H32" s="115"/>
-      <c r="I32" s="115"/>
-      <c r="J32" s="115"/>
-      <c r="K32" s="115"/>
-      <c r="L32" s="115"/>
-      <c r="M32" s="115"/>
-      <c r="N32" s="116"/>
+      <c r="B32" s="95"/>
+      <c r="C32" s="96"/>
+      <c r="D32" s="96"/>
+      <c r="E32" s="96"/>
+      <c r="F32" s="96"/>
+      <c r="G32" s="96"/>
+      <c r="H32" s="96"/>
+      <c r="I32" s="96"/>
+      <c r="J32" s="96"/>
+      <c r="K32" s="96"/>
+      <c r="L32" s="96"/>
+      <c r="M32" s="96"/>
+      <c r="N32" s="97"/>
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B33" s="114"/>
-      <c r="C33" s="115"/>
-      <c r="D33" s="115"/>
-      <c r="E33" s="115"/>
-      <c r="F33" s="115"/>
-      <c r="G33" s="115"/>
-      <c r="H33" s="115"/>
-      <c r="I33" s="115"/>
-      <c r="J33" s="115"/>
-      <c r="K33" s="115"/>
-      <c r="L33" s="115"/>
-      <c r="M33" s="115"/>
-      <c r="N33" s="116"/>
+      <c r="B33" s="95"/>
+      <c r="C33" s="96"/>
+      <c r="D33" s="96"/>
+      <c r="E33" s="96"/>
+      <c r="F33" s="96"/>
+      <c r="G33" s="96"/>
+      <c r="H33" s="96"/>
+      <c r="I33" s="96"/>
+      <c r="J33" s="96"/>
+      <c r="K33" s="96"/>
+      <c r="L33" s="96"/>
+      <c r="M33" s="96"/>
+      <c r="N33" s="97"/>
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
     </row>
     <row r="34" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B34" s="114"/>
-      <c r="C34" s="115"/>
-      <c r="D34" s="115"/>
-      <c r="E34" s="115"/>
-      <c r="F34" s="115"/>
-      <c r="G34" s="115"/>
-      <c r="H34" s="115"/>
-      <c r="I34" s="115"/>
-      <c r="J34" s="115"/>
-      <c r="K34" s="115"/>
-      <c r="L34" s="115"/>
-      <c r="M34" s="115"/>
-      <c r="N34" s="116"/>
+      <c r="B34" s="95"/>
+      <c r="C34" s="96"/>
+      <c r="D34" s="96"/>
+      <c r="E34" s="96"/>
+      <c r="F34" s="96"/>
+      <c r="G34" s="96"/>
+      <c r="H34" s="96"/>
+      <c r="I34" s="96"/>
+      <c r="J34" s="96"/>
+      <c r="K34" s="96"/>
+      <c r="L34" s="96"/>
+      <c r="M34" s="96"/>
+      <c r="N34" s="97"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B35" s="114"/>
-      <c r="C35" s="115"/>
-      <c r="D35" s="115"/>
-      <c r="E35" s="115"/>
-      <c r="F35" s="115"/>
-      <c r="G35" s="115"/>
-      <c r="H35" s="115"/>
-      <c r="I35" s="115"/>
-      <c r="J35" s="115"/>
-      <c r="K35" s="115"/>
-      <c r="L35" s="115"/>
-      <c r="M35" s="115"/>
-      <c r="N35" s="116"/>
+      <c r="B35" s="95"/>
+      <c r="C35" s="96"/>
+      <c r="D35" s="96"/>
+      <c r="E35" s="96"/>
+      <c r="F35" s="96"/>
+      <c r="G35" s="96"/>
+      <c r="H35" s="96"/>
+      <c r="I35" s="96"/>
+      <c r="J35" s="96"/>
+      <c r="K35" s="96"/>
+      <c r="L35" s="96"/>
+      <c r="M35" s="96"/>
+      <c r="N35" s="97"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B36" s="114"/>
-      <c r="C36" s="115"/>
-      <c r="D36" s="115"/>
-      <c r="E36" s="115"/>
-      <c r="F36" s="115"/>
-      <c r="G36" s="115"/>
-      <c r="H36" s="115"/>
-      <c r="I36" s="115"/>
-      <c r="J36" s="115"/>
-      <c r="K36" s="115"/>
-      <c r="L36" s="115"/>
-      <c r="M36" s="115"/>
-      <c r="N36" s="116"/>
+      <c r="B36" s="95"/>
+      <c r="C36" s="96"/>
+      <c r="D36" s="96"/>
+      <c r="E36" s="96"/>
+      <c r="F36" s="96"/>
+      <c r="G36" s="96"/>
+      <c r="H36" s="96"/>
+      <c r="I36" s="96"/>
+      <c r="J36" s="96"/>
+      <c r="K36" s="96"/>
+      <c r="L36" s="96"/>
+      <c r="M36" s="96"/>
+      <c r="N36" s="97"/>
       <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
     </row>
     <row r="37" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B37" s="114"/>
-      <c r="C37" s="115"/>
-      <c r="D37" s="115"/>
-      <c r="E37" s="115"/>
-      <c r="F37" s="115"/>
-      <c r="G37" s="115"/>
-      <c r="H37" s="115"/>
-      <c r="I37" s="115"/>
-      <c r="J37" s="115"/>
-      <c r="K37" s="115"/>
-      <c r="L37" s="115"/>
-      <c r="M37" s="115"/>
-      <c r="N37" s="116"/>
+      <c r="B37" s="95"/>
+      <c r="C37" s="96"/>
+      <c r="D37" s="96"/>
+      <c r="E37" s="96"/>
+      <c r="F37" s="96"/>
+      <c r="G37" s="96"/>
+      <c r="H37" s="96"/>
+      <c r="I37" s="96"/>
+      <c r="J37" s="96"/>
+      <c r="K37" s="96"/>
+      <c r="L37" s="96"/>
+      <c r="M37" s="96"/>
+      <c r="N37" s="97"/>
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
     </row>
     <row r="38" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B38" s="114"/>
-      <c r="C38" s="115"/>
-      <c r="D38" s="115"/>
-      <c r="E38" s="115"/>
-      <c r="F38" s="115"/>
-      <c r="G38" s="115"/>
-      <c r="H38" s="115"/>
-      <c r="I38" s="115"/>
-      <c r="J38" s="115"/>
-      <c r="K38" s="115"/>
-      <c r="L38" s="115"/>
-      <c r="M38" s="115"/>
-      <c r="N38" s="116"/>
+      <c r="B38" s="95"/>
+      <c r="C38" s="96"/>
+      <c r="D38" s="96"/>
+      <c r="E38" s="96"/>
+      <c r="F38" s="96"/>
+      <c r="G38" s="96"/>
+      <c r="H38" s="96"/>
+      <c r="I38" s="96"/>
+      <c r="J38" s="96"/>
+      <c r="K38" s="96"/>
+      <c r="L38" s="96"/>
+      <c r="M38" s="96"/>
+      <c r="N38" s="97"/>
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
     </row>
     <row r="39" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B39" s="114"/>
-      <c r="C39" s="115"/>
-      <c r="D39" s="115"/>
-      <c r="E39" s="115"/>
-      <c r="F39" s="115"/>
-      <c r="G39" s="115"/>
-      <c r="H39" s="115"/>
-      <c r="I39" s="115"/>
-      <c r="J39" s="115"/>
-      <c r="K39" s="115"/>
-      <c r="L39" s="115"/>
-      <c r="M39" s="115"/>
-      <c r="N39" s="116"/>
+      <c r="B39" s="95"/>
+      <c r="C39" s="96"/>
+      <c r="D39" s="96"/>
+      <c r="E39" s="96"/>
+      <c r="F39" s="96"/>
+      <c r="G39" s="96"/>
+      <c r="H39" s="96"/>
+      <c r="I39" s="96"/>
+      <c r="J39" s="96"/>
+      <c r="K39" s="96"/>
+      <c r="L39" s="96"/>
+      <c r="M39" s="96"/>
+      <c r="N39" s="97"/>
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
     </row>
     <row r="40" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B40" s="114"/>
-      <c r="C40" s="115"/>
-      <c r="D40" s="115"/>
-      <c r="E40" s="115"/>
-      <c r="F40" s="115"/>
-      <c r="G40" s="115"/>
-      <c r="H40" s="115"/>
-      <c r="I40" s="115"/>
-      <c r="J40" s="115"/>
-      <c r="K40" s="115"/>
-      <c r="L40" s="115"/>
-      <c r="M40" s="115"/>
-      <c r="N40" s="116"/>
+      <c r="B40" s="95"/>
+      <c r="C40" s="96"/>
+      <c r="D40" s="96"/>
+      <c r="E40" s="96"/>
+      <c r="F40" s="96"/>
+      <c r="G40" s="96"/>
+      <c r="H40" s="96"/>
+      <c r="I40" s="96"/>
+      <c r="J40" s="96"/>
+      <c r="K40" s="96"/>
+      <c r="L40" s="96"/>
+      <c r="M40" s="96"/>
+      <c r="N40" s="97"/>
       <c r="P40" s="2"/>
       <c r="Q40" s="2"/>
     </row>
     <row r="41" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B41" s="114"/>
-      <c r="C41" s="115"/>
-      <c r="D41" s="115"/>
-      <c r="E41" s="115"/>
-      <c r="F41" s="115"/>
-      <c r="G41" s="115"/>
-      <c r="H41" s="115"/>
-      <c r="I41" s="115"/>
-      <c r="J41" s="115"/>
-      <c r="K41" s="115"/>
-      <c r="L41" s="115"/>
-      <c r="M41" s="115"/>
-      <c r="N41" s="116"/>
+      <c r="B41" s="95"/>
+      <c r="C41" s="96"/>
+      <c r="D41" s="96"/>
+      <c r="E41" s="96"/>
+      <c r="F41" s="96"/>
+      <c r="G41" s="96"/>
+      <c r="H41" s="96"/>
+      <c r="I41" s="96"/>
+      <c r="J41" s="96"/>
+      <c r="K41" s="96"/>
+      <c r="L41" s="96"/>
+      <c r="M41" s="96"/>
+      <c r="N41" s="97"/>
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
     </row>
     <row r="42" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B42" s="114"/>
-      <c r="C42" s="115"/>
-      <c r="D42" s="115"/>
-      <c r="E42" s="115"/>
-      <c r="F42" s="115"/>
-      <c r="G42" s="115"/>
-      <c r="H42" s="115"/>
-      <c r="I42" s="115"/>
-      <c r="J42" s="115"/>
-      <c r="K42" s="115"/>
-      <c r="L42" s="115"/>
-      <c r="M42" s="115"/>
-      <c r="N42" s="116"/>
+      <c r="B42" s="95"/>
+      <c r="C42" s="96"/>
+      <c r="D42" s="96"/>
+      <c r="E42" s="96"/>
+      <c r="F42" s="96"/>
+      <c r="G42" s="96"/>
+      <c r="H42" s="96"/>
+      <c r="I42" s="96"/>
+      <c r="J42" s="96"/>
+      <c r="K42" s="96"/>
+      <c r="L42" s="96"/>
+      <c r="M42" s="96"/>
+      <c r="N42" s="97"/>
       <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
     </row>
     <row r="43" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B43" s="114"/>
-      <c r="C43" s="115"/>
-      <c r="D43" s="115"/>
-      <c r="E43" s="115"/>
-      <c r="F43" s="115"/>
-      <c r="G43" s="115"/>
-      <c r="H43" s="115"/>
-      <c r="I43" s="115"/>
-      <c r="J43" s="115"/>
-      <c r="K43" s="115"/>
-      <c r="L43" s="115"/>
-      <c r="M43" s="115"/>
-      <c r="N43" s="116"/>
+      <c r="B43" s="95"/>
+      <c r="C43" s="96"/>
+      <c r="D43" s="96"/>
+      <c r="E43" s="96"/>
+      <c r="F43" s="96"/>
+      <c r="G43" s="96"/>
+      <c r="H43" s="96"/>
+      <c r="I43" s="96"/>
+      <c r="J43" s="96"/>
+      <c r="K43" s="96"/>
+      <c r="L43" s="96"/>
+      <c r="M43" s="96"/>
+      <c r="N43" s="97"/>
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
     </row>
     <row r="44" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B44" s="114"/>
-      <c r="C44" s="115"/>
-      <c r="D44" s="115"/>
-      <c r="E44" s="115"/>
-      <c r="F44" s="115"/>
-      <c r="G44" s="115"/>
-      <c r="H44" s="115"/>
-      <c r="I44" s="115"/>
-      <c r="J44" s="115"/>
-      <c r="K44" s="115"/>
-      <c r="L44" s="115"/>
-      <c r="M44" s="115"/>
-      <c r="N44" s="116"/>
+      <c r="B44" s="95"/>
+      <c r="C44" s="96"/>
+      <c r="D44" s="96"/>
+      <c r="E44" s="96"/>
+      <c r="F44" s="96"/>
+      <c r="G44" s="96"/>
+      <c r="H44" s="96"/>
+      <c r="I44" s="96"/>
+      <c r="J44" s="96"/>
+      <c r="K44" s="96"/>
+      <c r="L44" s="96"/>
+      <c r="M44" s="96"/>
+      <c r="N44" s="97"/>
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
     </row>
     <row r="45" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B45" s="114"/>
-      <c r="C45" s="115"/>
-      <c r="D45" s="115"/>
-      <c r="E45" s="115"/>
-      <c r="F45" s="115"/>
-      <c r="G45" s="115"/>
-      <c r="H45" s="115"/>
-      <c r="I45" s="115"/>
-      <c r="J45" s="115"/>
-      <c r="K45" s="115"/>
-      <c r="L45" s="115"/>
-      <c r="M45" s="115"/>
-      <c r="N45" s="116"/>
+      <c r="B45" s="95"/>
+      <c r="C45" s="96"/>
+      <c r="D45" s="96"/>
+      <c r="E45" s="96"/>
+      <c r="F45" s="96"/>
+      <c r="G45" s="96"/>
+      <c r="H45" s="96"/>
+      <c r="I45" s="96"/>
+      <c r="J45" s="96"/>
+      <c r="K45" s="96"/>
+      <c r="L45" s="96"/>
+      <c r="M45" s="96"/>
+      <c r="N45" s="97"/>
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
     </row>
     <row r="46" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="B46" s="114"/>
-      <c r="C46" s="115"/>
-      <c r="D46" s="115"/>
-      <c r="E46" s="115"/>
-      <c r="F46" s="115"/>
-      <c r="G46" s="115"/>
-      <c r="H46" s="115"/>
-      <c r="I46" s="115"/>
-      <c r="J46" s="115"/>
-      <c r="K46" s="115"/>
-      <c r="L46" s="115"/>
-      <c r="M46" s="115"/>
-      <c r="N46" s="116"/>
+      <c r="B46" s="95"/>
+      <c r="C46" s="96"/>
+      <c r="D46" s="96"/>
+      <c r="E46" s="96"/>
+      <c r="F46" s="96"/>
+      <c r="G46" s="96"/>
+      <c r="H46" s="96"/>
+      <c r="I46" s="96"/>
+      <c r="J46" s="96"/>
+      <c r="K46" s="96"/>
+      <c r="L46" s="96"/>
+      <c r="M46" s="96"/>
+      <c r="N46" s="97"/>
       <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
     </row>
     <row r="47" spans="2:17" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="114"/>
-      <c r="C47" s="115"/>
-      <c r="D47" s="115"/>
-      <c r="E47" s="115"/>
-      <c r="F47" s="115"/>
-      <c r="G47" s="115"/>
-      <c r="H47" s="115"/>
-      <c r="I47" s="115"/>
-      <c r="J47" s="115"/>
-      <c r="K47" s="115"/>
-      <c r="L47" s="115"/>
-      <c r="M47" s="115"/>
-      <c r="N47" s="116"/>
+      <c r="B47" s="95"/>
+      <c r="C47" s="96"/>
+      <c r="D47" s="96"/>
+      <c r="E47" s="96"/>
+      <c r="F47" s="96"/>
+      <c r="G47" s="96"/>
+      <c r="H47" s="96"/>
+      <c r="I47" s="96"/>
+      <c r="J47" s="96"/>
+      <c r="K47" s="96"/>
+      <c r="L47" s="96"/>
+      <c r="M47" s="96"/>
+      <c r="N47" s="97"/>
       <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
     </row>
@@ -7885,7 +7769,7 @@
   <dimension ref="B1:P79"/>
   <sheetViews>
     <sheetView topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N44" sqref="N44"/>
+      <selection activeCell="I48" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -7918,715 +7802,715 @@
   <sheetData>
     <row r="1" spans="2:16" ht="18" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B2" s="111"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="113"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="94"/>
       <c r="O2" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B3" s="114"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="115"/>
-      <c r="J3" s="115"/>
-      <c r="K3" s="115"/>
-      <c r="L3" s="115"/>
-      <c r="M3" s="116"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="97"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="114"/>
-      <c r="C4" s="115"/>
-      <c r="D4" s="115"/>
-      <c r="E4" s="115"/>
-      <c r="F4" s="115"/>
-      <c r="G4" s="115"/>
-      <c r="H4" s="115"/>
-      <c r="I4" s="115"/>
-      <c r="J4" s="115"/>
-      <c r="K4" s="115"/>
-      <c r="L4" s="115"/>
-      <c r="M4" s="116"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="96"/>
+      <c r="L4" s="96"/>
+      <c r="M4" s="97"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B5" s="114"/>
-      <c r="C5" s="115"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="115"/>
-      <c r="F5" s="115"/>
-      <c r="G5" s="115"/>
-      <c r="H5" s="115"/>
-      <c r="I5" s="115"/>
-      <c r="J5" s="115"/>
-      <c r="K5" s="115"/>
-      <c r="L5" s="115"/>
-      <c r="M5" s="116"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="96"/>
+      <c r="I5" s="96"/>
+      <c r="J5" s="96"/>
+      <c r="K5" s="96"/>
+      <c r="L5" s="96"/>
+      <c r="M5" s="97"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="114"/>
-      <c r="C6" s="115"/>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="115"/>
-      <c r="K6" s="115"/>
-      <c r="L6" s="115"/>
-      <c r="M6" s="116"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="96"/>
+      <c r="J6" s="96"/>
+      <c r="K6" s="96"/>
+      <c r="L6" s="96"/>
+      <c r="M6" s="97"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="114"/>
-      <c r="C7" s="115"/>
-      <c r="D7" s="115"/>
-      <c r="E7" s="115"/>
-      <c r="F7" s="115"/>
-      <c r="G7" s="115"/>
-      <c r="H7" s="115"/>
-      <c r="I7" s="115"/>
-      <c r="J7" s="115"/>
-      <c r="K7" s="115"/>
-      <c r="L7" s="115"/>
-      <c r="M7" s="116"/>
+      <c r="B7" s="95"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="96"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="96"/>
+      <c r="K7" s="96"/>
+      <c r="L7" s="96"/>
+      <c r="M7" s="97"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="114"/>
-      <c r="C8" s="115"/>
-      <c r="D8" s="115"/>
-      <c r="E8" s="115"/>
-      <c r="F8" s="115"/>
-      <c r="G8" s="115"/>
-      <c r="H8" s="115"/>
-      <c r="I8" s="115"/>
-      <c r="J8" s="115"/>
-      <c r="K8" s="115"/>
-      <c r="L8" s="115"/>
-      <c r="M8" s="116"/>
+      <c r="B8" s="95"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="96"/>
+      <c r="H8" s="96"/>
+      <c r="I8" s="96"/>
+      <c r="J8" s="96"/>
+      <c r="K8" s="96"/>
+      <c r="L8" s="96"/>
+      <c r="M8" s="97"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="114"/>
-      <c r="C9" s="115"/>
-      <c r="D9" s="115"/>
-      <c r="E9" s="115"/>
-      <c r="F9" s="115"/>
-      <c r="G9" s="115"/>
-      <c r="H9" s="115"/>
-      <c r="I9" s="115"/>
-      <c r="J9" s="115"/>
-      <c r="K9" s="115"/>
-      <c r="L9" s="115"/>
-      <c r="M9" s="116"/>
+      <c r="B9" s="95"/>
+      <c r="C9" s="96"/>
+      <c r="D9" s="96"/>
+      <c r="E9" s="96"/>
+      <c r="F9" s="96"/>
+      <c r="G9" s="96"/>
+      <c r="H9" s="96"/>
+      <c r="I9" s="96"/>
+      <c r="J9" s="96"/>
+      <c r="K9" s="96"/>
+      <c r="L9" s="96"/>
+      <c r="M9" s="97"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="114"/>
-      <c r="C10" s="115"/>
-      <c r="D10" s="115"/>
-      <c r="E10" s="115"/>
-      <c r="F10" s="115"/>
-      <c r="G10" s="115"/>
-      <c r="H10" s="115"/>
-      <c r="I10" s="115"/>
-      <c r="J10" s="115"/>
-      <c r="K10" s="115"/>
-      <c r="L10" s="115"/>
-      <c r="M10" s="116"/>
+      <c r="B10" s="95"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="96"/>
+      <c r="E10" s="96"/>
+      <c r="F10" s="96"/>
+      <c r="G10" s="96"/>
+      <c r="H10" s="96"/>
+      <c r="I10" s="96"/>
+      <c r="J10" s="96"/>
+      <c r="K10" s="96"/>
+      <c r="L10" s="96"/>
+      <c r="M10" s="97"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="114"/>
-      <c r="C11" s="115"/>
-      <c r="D11" s="115"/>
-      <c r="E11" s="115"/>
-      <c r="F11" s="115"/>
-      <c r="G11" s="115"/>
-      <c r="H11" s="115"/>
-      <c r="I11" s="115"/>
-      <c r="J11" s="115"/>
-      <c r="K11" s="115"/>
-      <c r="L11" s="115"/>
-      <c r="M11" s="116"/>
+      <c r="B11" s="95"/>
+      <c r="C11" s="96"/>
+      <c r="D11" s="96"/>
+      <c r="E11" s="96"/>
+      <c r="F11" s="96"/>
+      <c r="G11" s="96"/>
+      <c r="H11" s="96"/>
+      <c r="I11" s="96"/>
+      <c r="J11" s="96"/>
+      <c r="K11" s="96"/>
+      <c r="L11" s="96"/>
+      <c r="M11" s="97"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="114"/>
-      <c r="C12" s="115"/>
-      <c r="D12" s="115"/>
-      <c r="E12" s="115"/>
-      <c r="F12" s="115"/>
-      <c r="G12" s="115"/>
-      <c r="H12" s="115"/>
-      <c r="I12" s="115"/>
-      <c r="J12" s="115"/>
-      <c r="K12" s="115"/>
-      <c r="L12" s="115"/>
-      <c r="M12" s="116"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="96"/>
+      <c r="D12" s="96"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="96"/>
+      <c r="G12" s="96"/>
+      <c r="H12" s="96"/>
+      <c r="I12" s="96"/>
+      <c r="J12" s="96"/>
+      <c r="K12" s="96"/>
+      <c r="L12" s="96"/>
+      <c r="M12" s="97"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="114"/>
-      <c r="C13" s="115"/>
-      <c r="D13" s="115"/>
-      <c r="E13" s="115"/>
-      <c r="F13" s="115"/>
-      <c r="G13" s="115"/>
-      <c r="H13" s="115"/>
-      <c r="I13" s="115"/>
-      <c r="J13" s="115"/>
-      <c r="K13" s="115"/>
-      <c r="L13" s="115"/>
-      <c r="M13" s="116"/>
+      <c r="B13" s="95"/>
+      <c r="C13" s="96"/>
+      <c r="D13" s="96"/>
+      <c r="E13" s="96"/>
+      <c r="F13" s="96"/>
+      <c r="G13" s="96"/>
+      <c r="H13" s="96"/>
+      <c r="I13" s="96"/>
+      <c r="J13" s="96"/>
+      <c r="K13" s="96"/>
+      <c r="L13" s="96"/>
+      <c r="M13" s="97"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="114"/>
-      <c r="C14" s="115"/>
-      <c r="D14" s="115"/>
-      <c r="E14" s="115"/>
-      <c r="F14" s="115"/>
-      <c r="G14" s="115"/>
-      <c r="H14" s="115"/>
-      <c r="I14" s="115"/>
-      <c r="J14" s="115"/>
-      <c r="K14" s="115"/>
-      <c r="L14" s="115"/>
-      <c r="M14" s="116"/>
+      <c r="B14" s="95"/>
+      <c r="C14" s="96"/>
+      <c r="D14" s="96"/>
+      <c r="E14" s="96"/>
+      <c r="F14" s="96"/>
+      <c r="G14" s="96"/>
+      <c r="H14" s="96"/>
+      <c r="I14" s="96"/>
+      <c r="J14" s="96"/>
+      <c r="K14" s="96"/>
+      <c r="L14" s="96"/>
+      <c r="M14" s="97"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="114"/>
-      <c r="C15" s="115"/>
-      <c r="D15" s="115"/>
-      <c r="E15" s="115"/>
-      <c r="F15" s="115"/>
-      <c r="G15" s="115"/>
-      <c r="H15" s="115"/>
-      <c r="I15" s="115"/>
-      <c r="J15" s="115"/>
-      <c r="K15" s="115"/>
-      <c r="L15" s="115"/>
-      <c r="M15" s="116"/>
+      <c r="B15" s="95"/>
+      <c r="C15" s="96"/>
+      <c r="D15" s="96"/>
+      <c r="E15" s="96"/>
+      <c r="F15" s="96"/>
+      <c r="G15" s="96"/>
+      <c r="H15" s="96"/>
+      <c r="I15" s="96"/>
+      <c r="J15" s="96"/>
+      <c r="K15" s="96"/>
+      <c r="L15" s="96"/>
+      <c r="M15" s="97"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="114"/>
-      <c r="C16" s="115"/>
-      <c r="D16" s="115"/>
-      <c r="E16" s="115"/>
-      <c r="F16" s="115"/>
-      <c r="G16" s="115"/>
-      <c r="H16" s="115"/>
-      <c r="I16" s="115"/>
-      <c r="J16" s="115"/>
-      <c r="K16" s="115"/>
-      <c r="L16" s="115"/>
-      <c r="M16" s="116"/>
+      <c r="B16" s="95"/>
+      <c r="C16" s="96"/>
+      <c r="D16" s="96"/>
+      <c r="E16" s="96"/>
+      <c r="F16" s="96"/>
+      <c r="G16" s="96"/>
+      <c r="H16" s="96"/>
+      <c r="I16" s="96"/>
+      <c r="J16" s="96"/>
+      <c r="K16" s="96"/>
+      <c r="L16" s="96"/>
+      <c r="M16" s="97"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B17" s="114"/>
-      <c r="C17" s="115"/>
-      <c r="D17" s="115"/>
-      <c r="E17" s="115"/>
-      <c r="F17" s="115"/>
-      <c r="G17" s="115"/>
-      <c r="H17" s="115"/>
-      <c r="I17" s="115"/>
-      <c r="J17" s="115"/>
-      <c r="K17" s="115"/>
-      <c r="L17" s="115"/>
-      <c r="M17" s="116"/>
+      <c r="B17" s="95"/>
+      <c r="C17" s="96"/>
+      <c r="D17" s="96"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="96"/>
+      <c r="H17" s="96"/>
+      <c r="I17" s="96"/>
+      <c r="J17" s="96"/>
+      <c r="K17" s="96"/>
+      <c r="L17" s="96"/>
+      <c r="M17" s="97"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B18" s="114"/>
-      <c r="C18" s="115"/>
-      <c r="D18" s="115"/>
-      <c r="E18" s="115"/>
-      <c r="F18" s="115"/>
-      <c r="G18" s="115"/>
-      <c r="H18" s="115"/>
-      <c r="I18" s="115"/>
-      <c r="J18" s="115"/>
-      <c r="K18" s="115"/>
-      <c r="L18" s="115"/>
-      <c r="M18" s="116"/>
+      <c r="B18" s="95"/>
+      <c r="C18" s="96"/>
+      <c r="D18" s="96"/>
+      <c r="E18" s="96"/>
+      <c r="F18" s="96"/>
+      <c r="G18" s="96"/>
+      <c r="H18" s="96"/>
+      <c r="I18" s="96"/>
+      <c r="J18" s="96"/>
+      <c r="K18" s="96"/>
+      <c r="L18" s="96"/>
+      <c r="M18" s="97"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B19" s="114"/>
-      <c r="C19" s="115"/>
-      <c r="D19" s="115"/>
-      <c r="E19" s="115"/>
-      <c r="F19" s="115"/>
-      <c r="G19" s="115"/>
-      <c r="H19" s="115"/>
-      <c r="I19" s="115"/>
-      <c r="J19" s="115"/>
-      <c r="K19" s="115"/>
-      <c r="L19" s="115"/>
-      <c r="M19" s="116"/>
+      <c r="B19" s="95"/>
+      <c r="C19" s="96"/>
+      <c r="D19" s="96"/>
+      <c r="E19" s="96"/>
+      <c r="F19" s="96"/>
+      <c r="G19" s="96"/>
+      <c r="H19" s="96"/>
+      <c r="I19" s="96"/>
+      <c r="J19" s="96"/>
+      <c r="K19" s="96"/>
+      <c r="L19" s="96"/>
+      <c r="M19" s="97"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B20" s="114"/>
-      <c r="C20" s="115"/>
-      <c r="D20" s="115"/>
-      <c r="E20" s="115"/>
-      <c r="F20" s="115"/>
-      <c r="G20" s="115"/>
-      <c r="H20" s="115"/>
-      <c r="I20" s="115"/>
-      <c r="J20" s="115"/>
-      <c r="K20" s="115"/>
-      <c r="L20" s="115"/>
-      <c r="M20" s="116"/>
+      <c r="B20" s="95"/>
+      <c r="C20" s="96"/>
+      <c r="D20" s="96"/>
+      <c r="E20" s="96"/>
+      <c r="F20" s="96"/>
+      <c r="G20" s="96"/>
+      <c r="H20" s="96"/>
+      <c r="I20" s="96"/>
+      <c r="J20" s="96"/>
+      <c r="K20" s="96"/>
+      <c r="L20" s="96"/>
+      <c r="M20" s="97"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B21" s="114"/>
-      <c r="C21" s="115"/>
-      <c r="D21" s="115"/>
-      <c r="E21" s="115"/>
-      <c r="F21" s="115"/>
-      <c r="G21" s="115"/>
-      <c r="H21" s="115"/>
-      <c r="I21" s="115"/>
-      <c r="J21" s="115"/>
-      <c r="K21" s="115"/>
-      <c r="L21" s="115"/>
-      <c r="M21" s="116"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="96"/>
+      <c r="E21" s="96"/>
+      <c r="F21" s="96"/>
+      <c r="G21" s="96"/>
+      <c r="H21" s="96"/>
+      <c r="I21" s="96"/>
+      <c r="J21" s="96"/>
+      <c r="K21" s="96"/>
+      <c r="L21" s="96"/>
+      <c r="M21" s="97"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B22" s="114"/>
-      <c r="C22" s="115"/>
-      <c r="D22" s="115"/>
-      <c r="E22" s="115"/>
-      <c r="F22" s="115"/>
-      <c r="G22" s="115"/>
-      <c r="H22" s="115"/>
-      <c r="I22" s="115"/>
-      <c r="J22" s="115"/>
-      <c r="K22" s="115"/>
-      <c r="L22" s="115"/>
-      <c r="M22" s="116"/>
+      <c r="B22" s="95"/>
+      <c r="C22" s="96"/>
+      <c r="D22" s="96"/>
+      <c r="E22" s="96"/>
+      <c r="F22" s="96"/>
+      <c r="G22" s="96"/>
+      <c r="H22" s="96"/>
+      <c r="I22" s="96"/>
+      <c r="J22" s="96"/>
+      <c r="K22" s="96"/>
+      <c r="L22" s="96"/>
+      <c r="M22" s="97"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B23" s="114"/>
-      <c r="C23" s="115"/>
-      <c r="D23" s="115"/>
-      <c r="E23" s="115"/>
-      <c r="F23" s="115"/>
-      <c r="G23" s="115"/>
-      <c r="H23" s="115"/>
-      <c r="I23" s="115"/>
-      <c r="J23" s="115"/>
-      <c r="K23" s="115"/>
-      <c r="L23" s="115"/>
-      <c r="M23" s="116"/>
+      <c r="B23" s="95"/>
+      <c r="C23" s="96"/>
+      <c r="D23" s="96"/>
+      <c r="E23" s="96"/>
+      <c r="F23" s="96"/>
+      <c r="G23" s="96"/>
+      <c r="H23" s="96"/>
+      <c r="I23" s="96"/>
+      <c r="J23" s="96"/>
+      <c r="K23" s="96"/>
+      <c r="L23" s="96"/>
+      <c r="M23" s="97"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B24" s="114"/>
-      <c r="C24" s="115"/>
-      <c r="D24" s="115"/>
-      <c r="E24" s="115"/>
-      <c r="F24" s="115"/>
-      <c r="G24" s="115"/>
-      <c r="H24" s="115"/>
-      <c r="I24" s="115"/>
-      <c r="J24" s="115"/>
-      <c r="K24" s="115"/>
-      <c r="L24" s="115"/>
-      <c r="M24" s="116"/>
+      <c r="B24" s="95"/>
+      <c r="C24" s="96"/>
+      <c r="D24" s="96"/>
+      <c r="E24" s="96"/>
+      <c r="F24" s="96"/>
+      <c r="G24" s="96"/>
+      <c r="H24" s="96"/>
+      <c r="I24" s="96"/>
+      <c r="J24" s="96"/>
+      <c r="K24" s="96"/>
+      <c r="L24" s="96"/>
+      <c r="M24" s="97"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B25" s="114"/>
-      <c r="C25" s="115"/>
-      <c r="D25" s="115"/>
-      <c r="E25" s="115"/>
-      <c r="F25" s="115"/>
-      <c r="G25" s="115"/>
-      <c r="H25" s="115"/>
-      <c r="I25" s="115"/>
-      <c r="J25" s="115"/>
-      <c r="K25" s="115"/>
-      <c r="L25" s="115"/>
-      <c r="M25" s="116"/>
+      <c r="B25" s="95"/>
+      <c r="C25" s="96"/>
+      <c r="D25" s="96"/>
+      <c r="E25" s="96"/>
+      <c r="F25" s="96"/>
+      <c r="G25" s="96"/>
+      <c r="H25" s="96"/>
+      <c r="I25" s="96"/>
+      <c r="J25" s="96"/>
+      <c r="K25" s="96"/>
+      <c r="L25" s="96"/>
+      <c r="M25" s="97"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B26" s="114"/>
-      <c r="C26" s="115"/>
-      <c r="D26" s="115"/>
-      <c r="E26" s="115"/>
-      <c r="F26" s="115"/>
-      <c r="G26" s="115"/>
-      <c r="H26" s="115"/>
-      <c r="I26" s="115"/>
-      <c r="J26" s="115"/>
-      <c r="K26" s="115"/>
-      <c r="L26" s="115"/>
-      <c r="M26" s="116"/>
+      <c r="B26" s="95"/>
+      <c r="C26" s="96"/>
+      <c r="D26" s="96"/>
+      <c r="E26" s="96"/>
+      <c r="F26" s="96"/>
+      <c r="G26" s="96"/>
+      <c r="H26" s="96"/>
+      <c r="I26" s="96"/>
+      <c r="J26" s="96"/>
+      <c r="K26" s="96"/>
+      <c r="L26" s="96"/>
+      <c r="M26" s="97"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B27" s="114"/>
-      <c r="C27" s="115"/>
-      <c r="D27" s="115"/>
-      <c r="E27" s="115"/>
-      <c r="F27" s="115"/>
-      <c r="G27" s="115"/>
-      <c r="H27" s="115"/>
-      <c r="I27" s="115"/>
-      <c r="J27" s="115"/>
-      <c r="K27" s="115"/>
-      <c r="L27" s="115"/>
-      <c r="M27" s="116"/>
+      <c r="B27" s="95"/>
+      <c r="C27" s="96"/>
+      <c r="D27" s="96"/>
+      <c r="E27" s="96"/>
+      <c r="F27" s="96"/>
+      <c r="G27" s="96"/>
+      <c r="H27" s="96"/>
+      <c r="I27" s="96"/>
+      <c r="J27" s="96"/>
+      <c r="K27" s="96"/>
+      <c r="L27" s="96"/>
+      <c r="M27" s="97"/>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B28" s="114"/>
-      <c r="C28" s="115"/>
-      <c r="D28" s="115"/>
-      <c r="E28" s="115"/>
-      <c r="F28" s="115"/>
-      <c r="G28" s="115"/>
-      <c r="H28" s="115"/>
-      <c r="I28" s="115"/>
-      <c r="J28" s="115"/>
-      <c r="K28" s="115"/>
-      <c r="L28" s="115"/>
-      <c r="M28" s="116"/>
+      <c r="B28" s="95"/>
+      <c r="C28" s="96"/>
+      <c r="D28" s="96"/>
+      <c r="E28" s="96"/>
+      <c r="F28" s="96"/>
+      <c r="G28" s="96"/>
+      <c r="H28" s="96"/>
+      <c r="I28" s="96"/>
+      <c r="J28" s="96"/>
+      <c r="K28" s="96"/>
+      <c r="L28" s="96"/>
+      <c r="M28" s="97"/>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B29" s="114"/>
-      <c r="C29" s="115"/>
-      <c r="D29" s="115"/>
-      <c r="E29" s="115"/>
-      <c r="F29" s="115"/>
-      <c r="G29" s="115"/>
-      <c r="H29" s="115"/>
-      <c r="I29" s="115"/>
-      <c r="J29" s="115"/>
-      <c r="K29" s="115"/>
-      <c r="L29" s="115"/>
-      <c r="M29" s="116"/>
+      <c r="B29" s="95"/>
+      <c r="C29" s="96"/>
+      <c r="D29" s="96"/>
+      <c r="E29" s="96"/>
+      <c r="F29" s="96"/>
+      <c r="G29" s="96"/>
+      <c r="H29" s="96"/>
+      <c r="I29" s="96"/>
+      <c r="J29" s="96"/>
+      <c r="K29" s="96"/>
+      <c r="L29" s="96"/>
+      <c r="M29" s="97"/>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B30" s="114"/>
-      <c r="C30" s="115"/>
-      <c r="D30" s="115"/>
-      <c r="E30" s="115"/>
-      <c r="F30" s="115"/>
-      <c r="G30" s="115"/>
-      <c r="H30" s="115"/>
-      <c r="I30" s="115"/>
-      <c r="J30" s="115"/>
-      <c r="K30" s="115"/>
-      <c r="L30" s="115"/>
-      <c r="M30" s="116"/>
+      <c r="B30" s="95"/>
+      <c r="C30" s="96"/>
+      <c r="D30" s="96"/>
+      <c r="E30" s="96"/>
+      <c r="F30" s="96"/>
+      <c r="G30" s="96"/>
+      <c r="H30" s="96"/>
+      <c r="I30" s="96"/>
+      <c r="J30" s="96"/>
+      <c r="K30" s="96"/>
+      <c r="L30" s="96"/>
+      <c r="M30" s="97"/>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B31" s="114"/>
-      <c r="C31" s="115"/>
-      <c r="D31" s="115"/>
-      <c r="E31" s="115"/>
-      <c r="F31" s="115"/>
-      <c r="G31" s="115"/>
-      <c r="H31" s="115"/>
-      <c r="I31" s="115"/>
-      <c r="J31" s="115"/>
-      <c r="K31" s="115"/>
-      <c r="L31" s="115"/>
-      <c r="M31" s="116"/>
+      <c r="B31" s="95"/>
+      <c r="C31" s="96"/>
+      <c r="D31" s="96"/>
+      <c r="E31" s="96"/>
+      <c r="F31" s="96"/>
+      <c r="G31" s="96"/>
+      <c r="H31" s="96"/>
+      <c r="I31" s="96"/>
+      <c r="J31" s="96"/>
+      <c r="K31" s="96"/>
+      <c r="L31" s="96"/>
+      <c r="M31" s="97"/>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B32" s="114"/>
-      <c r="C32" s="115"/>
-      <c r="D32" s="115"/>
-      <c r="E32" s="115"/>
-      <c r="F32" s="115"/>
-      <c r="G32" s="115"/>
-      <c r="H32" s="115"/>
-      <c r="I32" s="115"/>
-      <c r="J32" s="115"/>
-      <c r="K32" s="115"/>
-      <c r="L32" s="115"/>
-      <c r="M32" s="116"/>
+      <c r="B32" s="95"/>
+      <c r="C32" s="96"/>
+      <c r="D32" s="96"/>
+      <c r="E32" s="96"/>
+      <c r="F32" s="96"/>
+      <c r="G32" s="96"/>
+      <c r="H32" s="96"/>
+      <c r="I32" s="96"/>
+      <c r="J32" s="96"/>
+      <c r="K32" s="96"/>
+      <c r="L32" s="96"/>
+      <c r="M32" s="97"/>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B33" s="114"/>
-      <c r="C33" s="115"/>
-      <c r="D33" s="115"/>
-      <c r="E33" s="115"/>
-      <c r="F33" s="115"/>
-      <c r="G33" s="115"/>
-      <c r="H33" s="115"/>
-      <c r="I33" s="115"/>
-      <c r="J33" s="115"/>
-      <c r="K33" s="115"/>
-      <c r="L33" s="115"/>
-      <c r="M33" s="116"/>
+      <c r="B33" s="95"/>
+      <c r="C33" s="96"/>
+      <c r="D33" s="96"/>
+      <c r="E33" s="96"/>
+      <c r="F33" s="96"/>
+      <c r="G33" s="96"/>
+      <c r="H33" s="96"/>
+      <c r="I33" s="96"/>
+      <c r="J33" s="96"/>
+      <c r="K33" s="96"/>
+      <c r="L33" s="96"/>
+      <c r="M33" s="97"/>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B34" s="114"/>
-      <c r="C34" s="115"/>
-      <c r="D34" s="115"/>
-      <c r="E34" s="115"/>
-      <c r="F34" s="115"/>
-      <c r="G34" s="115"/>
-      <c r="H34" s="115"/>
-      <c r="I34" s="115"/>
-      <c r="J34" s="115"/>
-      <c r="K34" s="115"/>
-      <c r="L34" s="115"/>
-      <c r="M34" s="116"/>
+      <c r="B34" s="95"/>
+      <c r="C34" s="96"/>
+      <c r="D34" s="96"/>
+      <c r="E34" s="96"/>
+      <c r="F34" s="96"/>
+      <c r="G34" s="96"/>
+      <c r="H34" s="96"/>
+      <c r="I34" s="96"/>
+      <c r="J34" s="96"/>
+      <c r="K34" s="96"/>
+      <c r="L34" s="96"/>
+      <c r="M34" s="97"/>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B35" s="114"/>
-      <c r="C35" s="115"/>
-      <c r="D35" s="115"/>
-      <c r="E35" s="115"/>
-      <c r="F35" s="115"/>
-      <c r="G35" s="115"/>
-      <c r="H35" s="115"/>
-      <c r="I35" s="115"/>
-      <c r="J35" s="115"/>
-      <c r="K35" s="115"/>
-      <c r="L35" s="115"/>
-      <c r="M35" s="116"/>
+      <c r="B35" s="95"/>
+      <c r="C35" s="96"/>
+      <c r="D35" s="96"/>
+      <c r="E35" s="96"/>
+      <c r="F35" s="96"/>
+      <c r="G35" s="96"/>
+      <c r="H35" s="96"/>
+      <c r="I35" s="96"/>
+      <c r="J35" s="96"/>
+      <c r="K35" s="96"/>
+      <c r="L35" s="96"/>
+      <c r="M35" s="97"/>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B36" s="114"/>
-      <c r="C36" s="115"/>
-      <c r="D36" s="115"/>
-      <c r="E36" s="115"/>
-      <c r="F36" s="115"/>
-      <c r="G36" s="115"/>
-      <c r="H36" s="115"/>
-      <c r="I36" s="115"/>
-      <c r="J36" s="115"/>
-      <c r="K36" s="115"/>
-      <c r="L36" s="115"/>
-      <c r="M36" s="116"/>
+      <c r="B36" s="95"/>
+      <c r="C36" s="96"/>
+      <c r="D36" s="96"/>
+      <c r="E36" s="96"/>
+      <c r="F36" s="96"/>
+      <c r="G36" s="96"/>
+      <c r="H36" s="96"/>
+      <c r="I36" s="96"/>
+      <c r="J36" s="96"/>
+      <c r="K36" s="96"/>
+      <c r="L36" s="96"/>
+      <c r="M36" s="97"/>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B37" s="114"/>
-      <c r="C37" s="115"/>
-      <c r="D37" s="115"/>
-      <c r="E37" s="115"/>
-      <c r="F37" s="115"/>
-      <c r="G37" s="115"/>
-      <c r="H37" s="115"/>
-      <c r="I37" s="115"/>
-      <c r="J37" s="115"/>
-      <c r="K37" s="115"/>
-      <c r="L37" s="115"/>
-      <c r="M37" s="116"/>
+      <c r="B37" s="95"/>
+      <c r="C37" s="96"/>
+      <c r="D37" s="96"/>
+      <c r="E37" s="96"/>
+      <c r="F37" s="96"/>
+      <c r="G37" s="96"/>
+      <c r="H37" s="96"/>
+      <c r="I37" s="96"/>
+      <c r="J37" s="96"/>
+      <c r="K37" s="96"/>
+      <c r="L37" s="96"/>
+      <c r="M37" s="97"/>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B38" s="114"/>
-      <c r="C38" s="115"/>
-      <c r="D38" s="115"/>
-      <c r="E38" s="115"/>
-      <c r="F38" s="115"/>
-      <c r="G38" s="115"/>
-      <c r="H38" s="115"/>
-      <c r="I38" s="115"/>
-      <c r="J38" s="115"/>
-      <c r="K38" s="115"/>
-      <c r="L38" s="115"/>
-      <c r="M38" s="116"/>
+      <c r="B38" s="95"/>
+      <c r="C38" s="96"/>
+      <c r="D38" s="96"/>
+      <c r="E38" s="96"/>
+      <c r="F38" s="96"/>
+      <c r="G38" s="96"/>
+      <c r="H38" s="96"/>
+      <c r="I38" s="96"/>
+      <c r="J38" s="96"/>
+      <c r="K38" s="96"/>
+      <c r="L38" s="96"/>
+      <c r="M38" s="97"/>
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B39" s="114"/>
-      <c r="C39" s="115"/>
-      <c r="D39" s="115"/>
-      <c r="E39" s="115"/>
-      <c r="F39" s="115"/>
-      <c r="G39" s="115"/>
-      <c r="H39" s="115"/>
-      <c r="I39" s="115"/>
-      <c r="J39" s="115"/>
-      <c r="K39" s="115"/>
-      <c r="L39" s="115"/>
-      <c r="M39" s="116"/>
+      <c r="B39" s="95"/>
+      <c r="C39" s="96"/>
+      <c r="D39" s="96"/>
+      <c r="E39" s="96"/>
+      <c r="F39" s="96"/>
+      <c r="G39" s="96"/>
+      <c r="H39" s="96"/>
+      <c r="I39" s="96"/>
+      <c r="J39" s="96"/>
+      <c r="K39" s="96"/>
+      <c r="L39" s="96"/>
+      <c r="M39" s="97"/>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B40" s="114"/>
-      <c r="C40" s="115"/>
-      <c r="D40" s="115"/>
-      <c r="E40" s="115"/>
-      <c r="F40" s="115"/>
-      <c r="G40" s="115"/>
-      <c r="H40" s="115"/>
-      <c r="I40" s="115"/>
-      <c r="J40" s="115"/>
-      <c r="K40" s="115"/>
-      <c r="L40" s="115"/>
-      <c r="M40" s="116"/>
+      <c r="B40" s="95"/>
+      <c r="C40" s="96"/>
+      <c r="D40" s="96"/>
+      <c r="E40" s="96"/>
+      <c r="F40" s="96"/>
+      <c r="G40" s="96"/>
+      <c r="H40" s="96"/>
+      <c r="I40" s="96"/>
+      <c r="J40" s="96"/>
+      <c r="K40" s="96"/>
+      <c r="L40" s="96"/>
+      <c r="M40" s="97"/>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B41" s="114"/>
-      <c r="C41" s="115"/>
-      <c r="D41" s="115"/>
-      <c r="E41" s="115"/>
-      <c r="F41" s="115"/>
-      <c r="G41" s="115"/>
-      <c r="H41" s="115"/>
-      <c r="I41" s="115"/>
-      <c r="J41" s="115"/>
-      <c r="K41" s="115"/>
-      <c r="L41" s="115"/>
-      <c r="M41" s="116"/>
+      <c r="B41" s="95"/>
+      <c r="C41" s="96"/>
+      <c r="D41" s="96"/>
+      <c r="E41" s="96"/>
+      <c r="F41" s="96"/>
+      <c r="G41" s="96"/>
+      <c r="H41" s="96"/>
+      <c r="I41" s="96"/>
+      <c r="J41" s="96"/>
+      <c r="K41" s="96"/>
+      <c r="L41" s="96"/>
+      <c r="M41" s="97"/>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B42" s="114"/>
-      <c r="C42" s="115"/>
-      <c r="D42" s="115"/>
-      <c r="E42" s="115"/>
-      <c r="F42" s="115"/>
-      <c r="G42" s="115"/>
-      <c r="H42" s="115"/>
-      <c r="I42" s="115"/>
-      <c r="J42" s="115"/>
-      <c r="K42" s="115"/>
-      <c r="L42" s="115"/>
-      <c r="M42" s="116"/>
+      <c r="B42" s="95"/>
+      <c r="C42" s="96"/>
+      <c r="D42" s="96"/>
+      <c r="E42" s="96"/>
+      <c r="F42" s="96"/>
+      <c r="G42" s="96"/>
+      <c r="H42" s="96"/>
+      <c r="I42" s="96"/>
+      <c r="J42" s="96"/>
+      <c r="K42" s="96"/>
+      <c r="L42" s="96"/>
+      <c r="M42" s="97"/>
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B43" s="114"/>
-      <c r="C43" s="115"/>
-      <c r="D43" s="115"/>
-      <c r="E43" s="115"/>
-      <c r="F43" s="115"/>
-      <c r="G43" s="115"/>
-      <c r="H43" s="115"/>
-      <c r="I43" s="115"/>
-      <c r="J43" s="115"/>
-      <c r="K43" s="115"/>
-      <c r="L43" s="115"/>
-      <c r="M43" s="116"/>
+      <c r="B43" s="95"/>
+      <c r="C43" s="96"/>
+      <c r="D43" s="96"/>
+      <c r="E43" s="96"/>
+      <c r="F43" s="96"/>
+      <c r="G43" s="96"/>
+      <c r="H43" s="96"/>
+      <c r="I43" s="96"/>
+      <c r="J43" s="96"/>
+      <c r="K43" s="96"/>
+      <c r="L43" s="96"/>
+      <c r="M43" s="97"/>
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B44" s="114"/>
-      <c r="C44" s="115"/>
-      <c r="D44" s="115"/>
-      <c r="E44" s="115"/>
-      <c r="F44" s="115"/>
-      <c r="G44" s="115"/>
-      <c r="H44" s="115"/>
-      <c r="I44" s="115"/>
-      <c r="J44" s="115"/>
-      <c r="K44" s="115"/>
-      <c r="L44" s="115"/>
-      <c r="M44" s="116"/>
+      <c r="B44" s="95"/>
+      <c r="C44" s="96"/>
+      <c r="D44" s="96"/>
+      <c r="E44" s="96"/>
+      <c r="F44" s="96"/>
+      <c r="G44" s="96"/>
+      <c r="H44" s="96"/>
+      <c r="I44" s="96"/>
+      <c r="J44" s="96"/>
+      <c r="K44" s="96"/>
+      <c r="L44" s="96"/>
+      <c r="M44" s="97"/>
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B45" s="114"/>
-      <c r="C45" s="115"/>
-      <c r="D45" s="115"/>
-      <c r="E45" s="115"/>
-      <c r="F45" s="115"/>
-      <c r="G45" s="115"/>
-      <c r="H45" s="115"/>
-      <c r="I45" s="115"/>
-      <c r="J45" s="115"/>
-      <c r="K45" s="115"/>
-      <c r="L45" s="115"/>
-      <c r="M45" s="116"/>
+      <c r="B45" s="95"/>
+      <c r="C45" s="96"/>
+      <c r="D45" s="96"/>
+      <c r="E45" s="96"/>
+      <c r="F45" s="96"/>
+      <c r="G45" s="96"/>
+      <c r="H45" s="96"/>
+      <c r="I45" s="96"/>
+      <c r="J45" s="96"/>
+      <c r="K45" s="96"/>
+      <c r="L45" s="96"/>
+      <c r="M45" s="97"/>
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B46" s="114"/>
-      <c r="C46" s="115"/>
-      <c r="D46" s="115"/>
-      <c r="E46" s="115"/>
-      <c r="F46" s="115"/>
-      <c r="G46" s="115"/>
-      <c r="H46" s="115"/>
-      <c r="I46" s="115"/>
-      <c r="J46" s="115"/>
-      <c r="K46" s="115"/>
-      <c r="L46" s="115"/>
-      <c r="M46" s="116"/>
+      <c r="B46" s="95"/>
+      <c r="C46" s="96"/>
+      <c r="D46" s="96"/>
+      <c r="E46" s="96"/>
+      <c r="F46" s="96"/>
+      <c r="G46" s="96"/>
+      <c r="H46" s="96"/>
+      <c r="I46" s="96"/>
+      <c r="J46" s="96"/>
+      <c r="K46" s="96"/>
+      <c r="L46" s="96"/>
+      <c r="M46" s="97"/>
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
     </row>
     <row r="47" spans="2:16" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="114"/>
-      <c r="C47" s="115"/>
-      <c r="D47" s="115"/>
-      <c r="E47" s="115"/>
-      <c r="F47" s="115"/>
-      <c r="G47" s="115"/>
-      <c r="H47" s="115"/>
-      <c r="I47" s="115"/>
-      <c r="J47" s="115"/>
-      <c r="K47" s="115"/>
-      <c r="L47" s="115"/>
-      <c r="M47" s="116"/>
+      <c r="B47" s="95"/>
+      <c r="C47" s="96"/>
+      <c r="D47" s="96"/>
+      <c r="E47" s="96"/>
+      <c r="F47" s="96"/>
+      <c r="G47" s="96"/>
+      <c r="H47" s="96"/>
+      <c r="I47" s="96"/>
+      <c r="J47" s="96"/>
+      <c r="K47" s="96"/>
+      <c r="L47" s="96"/>
+      <c r="M47" s="97"/>
       <c r="P47" s="2"/>
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.3">
@@ -9501,10 +9385,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4464D48F-099E-4E44-AF3D-D119AAF22166}">
-  <dimension ref="B1:M82"/>
+  <dimension ref="B1:O82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -9513,601 +9397,696 @@
     <col min="2" max="2" width="17.75" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="22.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="25.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="27.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.625" style="3" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="22.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9" style="3"/>
-    <col min="21" max="21" width="9" style="3" customWidth="1"/>
-    <col min="22" max="16384" width="9" style="3"/>
+    <col min="19" max="19" width="25.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9" style="3"/>
+    <col min="23" max="23" width="9" style="3" customWidth="1"/>
+    <col min="24" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B2" s="111"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="113"/>
-      <c r="L2" s="3" t="s">
+    <row r="1" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B2" s="92"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="94"/>
+      <c r="N2" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B3" s="114"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="115"/>
-      <c r="J3" s="116"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B4" s="114"/>
-      <c r="C4" s="115"/>
-      <c r="D4" s="115"/>
-      <c r="E4" s="115"/>
-      <c r="F4" s="115"/>
-      <c r="G4" s="115"/>
-      <c r="H4" s="115"/>
-      <c r="I4" s="115"/>
-      <c r="J4" s="116"/>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B5" s="114"/>
-      <c r="C5" s="115"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="115"/>
-      <c r="F5" s="115"/>
-      <c r="G5" s="115"/>
-      <c r="H5" s="115"/>
-      <c r="I5" s="115"/>
-      <c r="J5" s="116"/>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B6" s="114"/>
-      <c r="C6" s="115"/>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="116"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B7" s="114"/>
-      <c r="C7" s="115"/>
-      <c r="D7" s="115"/>
-      <c r="E7" s="115"/>
-      <c r="F7" s="115"/>
-      <c r="G7" s="115"/>
-      <c r="H7" s="115"/>
-      <c r="I7" s="115"/>
-      <c r="J7" s="116"/>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B8" s="114"/>
-      <c r="C8" s="115"/>
-      <c r="D8" s="115"/>
-      <c r="E8" s="115"/>
-      <c r="F8" s="115"/>
-      <c r="G8" s="115"/>
-      <c r="H8" s="115"/>
-      <c r="I8" s="115"/>
-      <c r="J8" s="116"/>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="114"/>
-      <c r="C9" s="115"/>
-      <c r="D9" s="115"/>
-      <c r="E9" s="115"/>
-      <c r="F9" s="115"/>
-      <c r="G9" s="115"/>
-      <c r="H9" s="115"/>
-      <c r="I9" s="115"/>
-      <c r="J9" s="116"/>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B10" s="114"/>
-      <c r="C10" s="115"/>
-      <c r="D10" s="115"/>
-      <c r="E10" s="115"/>
-      <c r="F10" s="115"/>
-      <c r="G10" s="115"/>
-      <c r="H10" s="115"/>
-      <c r="I10" s="115"/>
-      <c r="J10" s="116"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B11" s="114"/>
-      <c r="C11" s="115"/>
-      <c r="D11" s="115"/>
-      <c r="E11" s="115"/>
-      <c r="F11" s="115"/>
-      <c r="G11" s="115"/>
-      <c r="H11" s="115"/>
-      <c r="I11" s="115"/>
-      <c r="J11" s="116"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B12" s="114"/>
-      <c r="C12" s="115"/>
-      <c r="D12" s="115"/>
-      <c r="E12" s="115"/>
-      <c r="F12" s="115"/>
-      <c r="G12" s="115"/>
-      <c r="H12" s="115"/>
-      <c r="I12" s="115"/>
-      <c r="J12" s="116"/>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B13" s="114"/>
-      <c r="C13" s="115"/>
-      <c r="D13" s="115"/>
-      <c r="E13" s="115"/>
-      <c r="F13" s="115"/>
-      <c r="G13" s="115"/>
-      <c r="H13" s="115"/>
-      <c r="I13" s="115"/>
-      <c r="J13" s="116"/>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B14" s="114"/>
-      <c r="C14" s="115"/>
-      <c r="D14" s="115"/>
-      <c r="E14" s="115"/>
-      <c r="F14" s="115"/>
-      <c r="G14" s="115"/>
-      <c r="H14" s="115"/>
-      <c r="I14" s="115"/>
-      <c r="J14" s="116"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B15" s="114"/>
-      <c r="C15" s="115"/>
-      <c r="D15" s="115"/>
-      <c r="E15" s="115"/>
-      <c r="F15" s="115"/>
-      <c r="G15" s="115"/>
-      <c r="H15" s="115"/>
-      <c r="I15" s="115"/>
-      <c r="J15" s="116"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B16" s="114"/>
-      <c r="C16" s="115"/>
-      <c r="D16" s="115"/>
-      <c r="E16" s="115"/>
-      <c r="F16" s="115"/>
-      <c r="G16" s="115"/>
-      <c r="H16" s="115"/>
-      <c r="I16" s="115"/>
-      <c r="J16" s="116"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B17" s="114"/>
-      <c r="C17" s="115"/>
-      <c r="D17" s="115"/>
-      <c r="E17" s="115"/>
-      <c r="F17" s="115"/>
-      <c r="G17" s="115"/>
-      <c r="H17" s="115"/>
-      <c r="I17" s="115"/>
-      <c r="J17" s="116"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B18" s="114"/>
-      <c r="C18" s="115"/>
-      <c r="D18" s="115"/>
-      <c r="E18" s="115"/>
-      <c r="F18" s="115"/>
-      <c r="G18" s="115"/>
-      <c r="H18" s="115"/>
-      <c r="I18" s="115"/>
-      <c r="J18" s="116"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B19" s="114"/>
-      <c r="C19" s="115"/>
-      <c r="D19" s="115"/>
-      <c r="E19" s="115"/>
-      <c r="F19" s="115"/>
-      <c r="G19" s="115"/>
-      <c r="H19" s="115"/>
-      <c r="I19" s="115"/>
-      <c r="J19" s="116"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B20" s="114"/>
-      <c r="C20" s="115"/>
-      <c r="D20" s="115"/>
-      <c r="E20" s="115"/>
-      <c r="F20" s="115"/>
-      <c r="G20" s="115"/>
-      <c r="H20" s="115"/>
-      <c r="I20" s="115"/>
-      <c r="J20" s="116"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B21" s="114"/>
-      <c r="C21" s="115"/>
-      <c r="D21" s="115"/>
-      <c r="E21" s="115"/>
-      <c r="F21" s="115"/>
-      <c r="G21" s="115"/>
-      <c r="H21" s="115"/>
-      <c r="I21" s="115"/>
-      <c r="J21" s="116"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B22" s="114"/>
-      <c r="C22" s="115"/>
-      <c r="D22" s="115"/>
-      <c r="E22" s="115"/>
-      <c r="F22" s="115"/>
-      <c r="G22" s="115"/>
-      <c r="H22" s="115"/>
-      <c r="I22" s="115"/>
-      <c r="J22" s="116"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B23" s="114"/>
-      <c r="C23" s="115"/>
-      <c r="D23" s="115"/>
-      <c r="E23" s="115"/>
-      <c r="F23" s="115"/>
-      <c r="G23" s="115"/>
-      <c r="H23" s="115"/>
-      <c r="I23" s="115"/>
-      <c r="J23" s="116"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B24" s="114"/>
-      <c r="C24" s="115"/>
-      <c r="D24" s="115"/>
-      <c r="E24" s="115"/>
-      <c r="F24" s="115"/>
-      <c r="G24" s="115"/>
-      <c r="H24" s="115"/>
-      <c r="I24" s="115"/>
-      <c r="J24" s="116"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B25" s="114"/>
-      <c r="C25" s="115"/>
-      <c r="D25" s="115"/>
-      <c r="E25" s="115"/>
-      <c r="F25" s="115"/>
-      <c r="G25" s="115"/>
-      <c r="H25" s="115"/>
-      <c r="I25" s="115"/>
-      <c r="J25" s="116"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B26" s="114"/>
-      <c r="C26" s="115"/>
-      <c r="D26" s="115"/>
-      <c r="E26" s="115"/>
-      <c r="F26" s="115"/>
-      <c r="G26" s="115"/>
-      <c r="H26" s="115"/>
-      <c r="I26" s="115"/>
-      <c r="J26" s="116"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B27" s="114"/>
-      <c r="C27" s="115"/>
-      <c r="D27" s="115"/>
-      <c r="E27" s="115"/>
-      <c r="F27" s="115"/>
-      <c r="G27" s="115"/>
-      <c r="H27" s="115"/>
-      <c r="I27" s="115"/>
-      <c r="J27" s="116"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B28" s="114"/>
-      <c r="C28" s="115"/>
-      <c r="D28" s="115"/>
-      <c r="E28" s="115"/>
-      <c r="F28" s="115"/>
-      <c r="G28" s="115"/>
-      <c r="H28" s="115"/>
-      <c r="I28" s="115"/>
-      <c r="J28" s="116"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B29" s="114"/>
-      <c r="C29" s="115"/>
-      <c r="D29" s="115"/>
-      <c r="E29" s="115"/>
-      <c r="F29" s="115"/>
-      <c r="G29" s="115"/>
-      <c r="H29" s="115"/>
-      <c r="I29" s="115"/>
-      <c r="J29" s="116"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B30" s="114"/>
-      <c r="C30" s="115"/>
-      <c r="D30" s="115"/>
-      <c r="E30" s="115"/>
-      <c r="F30" s="115"/>
-      <c r="G30" s="115"/>
-      <c r="H30" s="115"/>
-      <c r="I30" s="115"/>
-      <c r="J30" s="116"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B31" s="114"/>
-      <c r="C31" s="115"/>
-      <c r="D31" s="115"/>
-      <c r="E31" s="115"/>
-      <c r="F31" s="115"/>
-      <c r="G31" s="115"/>
-      <c r="H31" s="115"/>
-      <c r="I31" s="115"/>
-      <c r="J31" s="116"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B32" s="114"/>
-      <c r="C32" s="115"/>
-      <c r="D32" s="115"/>
-      <c r="E32" s="115"/>
-      <c r="F32" s="115"/>
-      <c r="G32" s="115"/>
-      <c r="H32" s="115"/>
-      <c r="I32" s="115"/>
-      <c r="J32" s="116"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B33" s="114"/>
-      <c r="C33" s="115"/>
-      <c r="D33" s="115"/>
-      <c r="E33" s="115"/>
-      <c r="F33" s="115"/>
-      <c r="G33" s="115"/>
-      <c r="H33" s="115"/>
-      <c r="I33" s="115"/>
-      <c r="J33" s="116"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B34" s="114"/>
-      <c r="C34" s="115"/>
-      <c r="D34" s="115"/>
-      <c r="E34" s="115"/>
-      <c r="F34" s="115"/>
-      <c r="G34" s="115"/>
-      <c r="H34" s="115"/>
-      <c r="I34" s="115"/>
-      <c r="J34" s="116"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B35" s="114"/>
-      <c r="C35" s="115"/>
-      <c r="D35" s="115"/>
-      <c r="E35" s="115"/>
-      <c r="F35" s="115"/>
-      <c r="G35" s="115"/>
-      <c r="H35" s="115"/>
-      <c r="I35" s="115"/>
-      <c r="J35" s="116"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B36" s="114"/>
-      <c r="C36" s="115"/>
-      <c r="D36" s="115"/>
-      <c r="E36" s="115"/>
-      <c r="F36" s="115"/>
-      <c r="G36" s="115"/>
-      <c r="H36" s="115"/>
-      <c r="I36" s="115"/>
-      <c r="J36" s="116"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B37" s="114"/>
-      <c r="C37" s="115"/>
-      <c r="D37" s="115"/>
-      <c r="E37" s="115"/>
-      <c r="F37" s="115"/>
-      <c r="G37" s="115"/>
-      <c r="H37" s="115"/>
-      <c r="I37" s="115"/>
-      <c r="J37" s="116"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B38" s="114"/>
-      <c r="C38" s="115"/>
-      <c r="D38" s="115"/>
-      <c r="E38" s="115"/>
-      <c r="F38" s="115"/>
-      <c r="G38" s="115"/>
-      <c r="H38" s="115"/>
-      <c r="I38" s="115"/>
-      <c r="J38" s="116"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B39" s="114"/>
-      <c r="C39" s="115"/>
-      <c r="D39" s="115"/>
-      <c r="E39" s="115"/>
-      <c r="F39" s="115"/>
-      <c r="G39" s="115"/>
-      <c r="H39" s="115"/>
-      <c r="I39" s="115"/>
-      <c r="J39" s="116"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B40" s="114"/>
-      <c r="C40" s="115"/>
-      <c r="D40" s="115"/>
-      <c r="E40" s="115"/>
-      <c r="F40" s="115"/>
-      <c r="G40" s="115"/>
-      <c r="H40" s="115"/>
-      <c r="I40" s="115"/>
-      <c r="J40" s="116"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B41" s="114"/>
-      <c r="C41" s="115"/>
-      <c r="D41" s="115"/>
-      <c r="E41" s="115"/>
-      <c r="F41" s="115"/>
-      <c r="G41" s="115"/>
-      <c r="H41" s="115"/>
-      <c r="I41" s="115"/>
-      <c r="J41" s="116"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B42" s="114"/>
-      <c r="C42" s="115"/>
-      <c r="D42" s="115"/>
-      <c r="E42" s="115"/>
-      <c r="F42" s="115"/>
-      <c r="G42" s="115"/>
-      <c r="H42" s="115"/>
-      <c r="I42" s="115"/>
-      <c r="J42" s="116"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B43" s="114"/>
-      <c r="C43" s="115"/>
-      <c r="D43" s="115"/>
-      <c r="E43" s="115"/>
-      <c r="F43" s="115"/>
-      <c r="G43" s="115"/>
-      <c r="H43" s="115"/>
-      <c r="I43" s="115"/>
-      <c r="J43" s="116"/>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B44" s="114"/>
-      <c r="C44" s="115"/>
-      <c r="D44" s="115"/>
-      <c r="E44" s="115"/>
-      <c r="F44" s="115"/>
-      <c r="G44" s="115"/>
-      <c r="H44" s="115"/>
-      <c r="I44" s="115"/>
-      <c r="J44" s="116"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B45" s="114"/>
-      <c r="C45" s="115"/>
-      <c r="D45" s="115"/>
-      <c r="E45" s="115"/>
-      <c r="F45" s="115"/>
-      <c r="G45" s="115"/>
-      <c r="H45" s="115"/>
-      <c r="I45" s="115"/>
-      <c r="J45" s="116"/>
-      <c r="L45" s="2"/>
-      <c r="M45" s="2"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B46" s="114"/>
-      <c r="C46" s="115"/>
-      <c r="D46" s="115"/>
-      <c r="E46" s="115"/>
-      <c r="F46" s="115"/>
-      <c r="G46" s="115"/>
-      <c r="H46" s="115"/>
-      <c r="I46" s="115"/>
-      <c r="J46" s="116"/>
-      <c r="L46" s="2"/>
-      <c r="M46" s="2"/>
-    </row>
-    <row r="47" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="114"/>
-      <c r="C47" s="115"/>
-      <c r="D47" s="115"/>
-      <c r="E47" s="115"/>
-      <c r="F47" s="115"/>
-      <c r="G47" s="115"/>
-      <c r="H47" s="115"/>
-      <c r="I47" s="115"/>
-      <c r="J47" s="116"/>
-      <c r="M47" s="2"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B3" s="95"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="97"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B4" s="95"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="96"/>
+      <c r="L4" s="97"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B5" s="95"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="96"/>
+      <c r="I5" s="96"/>
+      <c r="J5" s="96"/>
+      <c r="K5" s="96"/>
+      <c r="L5" s="97"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B6" s="95"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="96"/>
+      <c r="J6" s="96"/>
+      <c r="K6" s="96"/>
+      <c r="L6" s="97"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B7" s="95"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="96"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="96"/>
+      <c r="K7" s="96"/>
+      <c r="L7" s="97"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B8" s="95"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="96"/>
+      <c r="H8" s="96"/>
+      <c r="I8" s="96"/>
+      <c r="J8" s="96"/>
+      <c r="K8" s="96"/>
+      <c r="L8" s="97"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B9" s="95"/>
+      <c r="C9" s="96"/>
+      <c r="D9" s="96"/>
+      <c r="E9" s="96"/>
+      <c r="F9" s="96"/>
+      <c r="G9" s="96"/>
+      <c r="H9" s="96"/>
+      <c r="I9" s="96"/>
+      <c r="J9" s="96"/>
+      <c r="K9" s="96"/>
+      <c r="L9" s="97"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B10" s="95"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="96"/>
+      <c r="E10" s="96"/>
+      <c r="F10" s="96"/>
+      <c r="G10" s="96"/>
+      <c r="H10" s="96"/>
+      <c r="I10" s="96"/>
+      <c r="J10" s="96"/>
+      <c r="K10" s="96"/>
+      <c r="L10" s="97"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B11" s="95"/>
+      <c r="C11" s="96"/>
+      <c r="D11" s="96"/>
+      <c r="E11" s="96"/>
+      <c r="F11" s="96"/>
+      <c r="G11" s="96"/>
+      <c r="H11" s="96"/>
+      <c r="I11" s="96"/>
+      <c r="J11" s="96"/>
+      <c r="K11" s="96"/>
+      <c r="L11" s="97"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B12" s="95"/>
+      <c r="C12" s="96"/>
+      <c r="D12" s="96"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="96"/>
+      <c r="G12" s="96"/>
+      <c r="H12" s="96"/>
+      <c r="I12" s="96"/>
+      <c r="J12" s="96"/>
+      <c r="K12" s="96"/>
+      <c r="L12" s="97"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B13" s="95"/>
+      <c r="C13" s="96"/>
+      <c r="D13" s="96"/>
+      <c r="E13" s="96"/>
+      <c r="F13" s="96"/>
+      <c r="G13" s="96"/>
+      <c r="H13" s="96"/>
+      <c r="I13" s="96"/>
+      <c r="J13" s="96"/>
+      <c r="K13" s="96"/>
+      <c r="L13" s="97"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B14" s="95"/>
+      <c r="C14" s="96"/>
+      <c r="D14" s="96"/>
+      <c r="E14" s="96"/>
+      <c r="F14" s="96"/>
+      <c r="G14" s="96"/>
+      <c r="H14" s="96"/>
+      <c r="I14" s="96"/>
+      <c r="J14" s="96"/>
+      <c r="K14" s="96"/>
+      <c r="L14" s="97"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B15" s="95"/>
+      <c r="C15" s="96"/>
+      <c r="D15" s="96"/>
+      <c r="E15" s="96"/>
+      <c r="F15" s="96"/>
+      <c r="G15" s="96"/>
+      <c r="H15" s="96"/>
+      <c r="I15" s="96"/>
+      <c r="J15" s="96"/>
+      <c r="K15" s="96"/>
+      <c r="L15" s="97"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B16" s="95"/>
+      <c r="C16" s="96"/>
+      <c r="D16" s="96"/>
+      <c r="E16" s="96"/>
+      <c r="F16" s="96"/>
+      <c r="G16" s="96"/>
+      <c r="H16" s="96"/>
+      <c r="I16" s="96"/>
+      <c r="J16" s="96"/>
+      <c r="K16" s="96"/>
+      <c r="L16" s="97"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B17" s="95"/>
+      <c r="C17" s="96"/>
+      <c r="D17" s="96"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="96"/>
+      <c r="H17" s="96"/>
+      <c r="I17" s="96"/>
+      <c r="J17" s="96"/>
+      <c r="K17" s="96"/>
+      <c r="L17" s="97"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B18" s="95"/>
+      <c r="C18" s="96"/>
+      <c r="D18" s="96"/>
+      <c r="E18" s="96"/>
+      <c r="F18" s="96"/>
+      <c r="G18" s="96"/>
+      <c r="H18" s="96"/>
+      <c r="I18" s="96"/>
+      <c r="J18" s="96"/>
+      <c r="K18" s="96"/>
+      <c r="L18" s="97"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B19" s="95"/>
+      <c r="C19" s="96"/>
+      <c r="D19" s="96"/>
+      <c r="E19" s="96"/>
+      <c r="F19" s="96"/>
+      <c r="G19" s="96"/>
+      <c r="H19" s="96"/>
+      <c r="I19" s="96"/>
+      <c r="J19" s="96"/>
+      <c r="K19" s="96"/>
+      <c r="L19" s="97"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B20" s="95"/>
+      <c r="C20" s="96"/>
+      <c r="D20" s="96"/>
+      <c r="E20" s="96"/>
+      <c r="F20" s="96"/>
+      <c r="G20" s="96"/>
+      <c r="H20" s="96"/>
+      <c r="I20" s="96"/>
+      <c r="J20" s="96"/>
+      <c r="K20" s="96"/>
+      <c r="L20" s="97"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B21" s="95"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="96"/>
+      <c r="E21" s="96"/>
+      <c r="F21" s="96"/>
+      <c r="G21" s="96"/>
+      <c r="H21" s="96"/>
+      <c r="I21" s="96"/>
+      <c r="J21" s="96"/>
+      <c r="K21" s="96"/>
+      <c r="L21" s="97"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B22" s="95"/>
+      <c r="C22" s="96"/>
+      <c r="D22" s="96"/>
+      <c r="E22" s="96"/>
+      <c r="F22" s="96"/>
+      <c r="G22" s="96"/>
+      <c r="H22" s="96"/>
+      <c r="I22" s="96"/>
+      <c r="J22" s="96"/>
+      <c r="K22" s="96"/>
+      <c r="L22" s="97"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B23" s="95"/>
+      <c r="C23" s="96"/>
+      <c r="D23" s="96"/>
+      <c r="E23" s="96"/>
+      <c r="F23" s="96"/>
+      <c r="G23" s="96"/>
+      <c r="H23" s="96"/>
+      <c r="I23" s="96"/>
+      <c r="J23" s="96"/>
+      <c r="K23" s="96"/>
+      <c r="L23" s="97"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B24" s="95"/>
+      <c r="C24" s="96"/>
+      <c r="D24" s="96"/>
+      <c r="E24" s="96"/>
+      <c r="F24" s="96"/>
+      <c r="G24" s="96"/>
+      <c r="H24" s="96"/>
+      <c r="I24" s="96"/>
+      <c r="J24" s="96"/>
+      <c r="K24" s="96"/>
+      <c r="L24" s="97"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B25" s="95"/>
+      <c r="C25" s="96"/>
+      <c r="D25" s="96"/>
+      <c r="E25" s="96"/>
+      <c r="F25" s="96"/>
+      <c r="G25" s="96"/>
+      <c r="H25" s="96"/>
+      <c r="I25" s="96"/>
+      <c r="J25" s="96"/>
+      <c r="K25" s="96"/>
+      <c r="L25" s="97"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B26" s="95"/>
+      <c r="C26" s="96"/>
+      <c r="D26" s="96"/>
+      <c r="E26" s="96"/>
+      <c r="F26" s="96"/>
+      <c r="G26" s="96"/>
+      <c r="H26" s="96"/>
+      <c r="I26" s="96"/>
+      <c r="J26" s="96"/>
+      <c r="K26" s="96"/>
+      <c r="L26" s="97"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B27" s="95"/>
+      <c r="C27" s="96"/>
+      <c r="D27" s="96"/>
+      <c r="E27" s="96"/>
+      <c r="F27" s="96"/>
+      <c r="G27" s="96"/>
+      <c r="H27" s="96"/>
+      <c r="I27" s="96"/>
+      <c r="J27" s="96"/>
+      <c r="K27" s="96"/>
+      <c r="L27" s="97"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B28" s="95"/>
+      <c r="C28" s="96"/>
+      <c r="D28" s="96"/>
+      <c r="E28" s="96"/>
+      <c r="F28" s="96"/>
+      <c r="G28" s="96"/>
+      <c r="H28" s="96"/>
+      <c r="I28" s="96"/>
+      <c r="J28" s="96"/>
+      <c r="K28" s="96"/>
+      <c r="L28" s="97"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B29" s="95"/>
+      <c r="C29" s="96"/>
+      <c r="D29" s="96"/>
+      <c r="E29" s="96"/>
+      <c r="F29" s="96"/>
+      <c r="G29" s="96"/>
+      <c r="H29" s="96"/>
+      <c r="I29" s="96"/>
+      <c r="J29" s="96"/>
+      <c r="K29" s="96"/>
+      <c r="L29" s="97"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B30" s="95"/>
+      <c r="C30" s="96"/>
+      <c r="D30" s="96"/>
+      <c r="E30" s="96"/>
+      <c r="F30" s="96"/>
+      <c r="G30" s="96"/>
+      <c r="H30" s="96"/>
+      <c r="I30" s="96"/>
+      <c r="J30" s="96"/>
+      <c r="K30" s="96"/>
+      <c r="L30" s="97"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B31" s="95"/>
+      <c r="C31" s="96"/>
+      <c r="D31" s="96"/>
+      <c r="E31" s="96"/>
+      <c r="F31" s="96"/>
+      <c r="G31" s="96"/>
+      <c r="H31" s="96"/>
+      <c r="I31" s="96"/>
+      <c r="J31" s="96"/>
+      <c r="K31" s="96"/>
+      <c r="L31" s="97"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B32" s="95"/>
+      <c r="C32" s="96"/>
+      <c r="D32" s="96"/>
+      <c r="E32" s="96"/>
+      <c r="F32" s="96"/>
+      <c r="G32" s="96"/>
+      <c r="H32" s="96"/>
+      <c r="I32" s="96"/>
+      <c r="J32" s="96"/>
+      <c r="K32" s="96"/>
+      <c r="L32" s="97"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B33" s="95"/>
+      <c r="C33" s="96"/>
+      <c r="D33" s="96"/>
+      <c r="E33" s="96"/>
+      <c r="F33" s="96"/>
+      <c r="G33" s="96"/>
+      <c r="H33" s="96"/>
+      <c r="I33" s="96"/>
+      <c r="J33" s="96"/>
+      <c r="K33" s="96"/>
+      <c r="L33" s="97"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B34" s="95"/>
+      <c r="C34" s="96"/>
+      <c r="D34" s="96"/>
+      <c r="E34" s="96"/>
+      <c r="F34" s="96"/>
+      <c r="G34" s="96"/>
+      <c r="H34" s="96"/>
+      <c r="I34" s="96"/>
+      <c r="J34" s="96"/>
+      <c r="K34" s="96"/>
+      <c r="L34" s="97"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B35" s="95"/>
+      <c r="C35" s="96"/>
+      <c r="D35" s="96"/>
+      <c r="E35" s="96"/>
+      <c r="F35" s="96"/>
+      <c r="G35" s="96"/>
+      <c r="H35" s="96"/>
+      <c r="I35" s="96"/>
+      <c r="J35" s="96"/>
+      <c r="K35" s="96"/>
+      <c r="L35" s="97"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B36" s="95"/>
+      <c r="C36" s="96"/>
+      <c r="D36" s="96"/>
+      <c r="E36" s="96"/>
+      <c r="F36" s="96"/>
+      <c r="G36" s="96"/>
+      <c r="H36" s="96"/>
+      <c r="I36" s="96"/>
+      <c r="J36" s="96"/>
+      <c r="K36" s="96"/>
+      <c r="L36" s="97"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B37" s="95"/>
+      <c r="C37" s="96"/>
+      <c r="D37" s="96"/>
+      <c r="E37" s="96"/>
+      <c r="F37" s="96"/>
+      <c r="G37" s="96"/>
+      <c r="H37" s="96"/>
+      <c r="I37" s="96"/>
+      <c r="J37" s="96"/>
+      <c r="K37" s="96"/>
+      <c r="L37" s="97"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B38" s="95"/>
+      <c r="C38" s="96"/>
+      <c r="D38" s="96"/>
+      <c r="E38" s="96"/>
+      <c r="F38" s="96"/>
+      <c r="G38" s="96"/>
+      <c r="H38" s="96"/>
+      <c r="I38" s="96"/>
+      <c r="J38" s="96"/>
+      <c r="K38" s="96"/>
+      <c r="L38" s="97"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B39" s="95"/>
+      <c r="C39" s="96"/>
+      <c r="D39" s="96"/>
+      <c r="E39" s="96"/>
+      <c r="F39" s="96"/>
+      <c r="G39" s="96"/>
+      <c r="H39" s="96"/>
+      <c r="I39" s="96"/>
+      <c r="J39" s="96"/>
+      <c r="K39" s="96"/>
+      <c r="L39" s="97"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B40" s="95"/>
+      <c r="C40" s="96"/>
+      <c r="D40" s="96"/>
+      <c r="E40" s="96"/>
+      <c r="F40" s="96"/>
+      <c r="G40" s="96"/>
+      <c r="H40" s="96"/>
+      <c r="I40" s="96"/>
+      <c r="J40" s="96"/>
+      <c r="K40" s="96"/>
+      <c r="L40" s="97"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B41" s="95"/>
+      <c r="C41" s="96"/>
+      <c r="D41" s="96"/>
+      <c r="E41" s="96"/>
+      <c r="F41" s="96"/>
+      <c r="G41" s="96"/>
+      <c r="H41" s="96"/>
+      <c r="I41" s="96"/>
+      <c r="J41" s="96"/>
+      <c r="K41" s="96"/>
+      <c r="L41" s="97"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B42" s="95"/>
+      <c r="C42" s="96"/>
+      <c r="D42" s="96"/>
+      <c r="E42" s="96"/>
+      <c r="F42" s="96"/>
+      <c r="G42" s="96"/>
+      <c r="H42" s="96"/>
+      <c r="I42" s="96"/>
+      <c r="J42" s="96"/>
+      <c r="K42" s="96"/>
+      <c r="L42" s="97"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B43" s="95"/>
+      <c r="C43" s="96"/>
+      <c r="D43" s="96"/>
+      <c r="E43" s="96"/>
+      <c r="F43" s="96"/>
+      <c r="G43" s="96"/>
+      <c r="H43" s="96"/>
+      <c r="I43" s="96"/>
+      <c r="J43" s="96"/>
+      <c r="K43" s="96"/>
+      <c r="L43" s="97"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B44" s="95"/>
+      <c r="C44" s="96"/>
+      <c r="D44" s="96"/>
+      <c r="E44" s="96"/>
+      <c r="F44" s="96"/>
+      <c r="G44" s="96"/>
+      <c r="H44" s="96"/>
+      <c r="I44" s="96"/>
+      <c r="J44" s="96"/>
+      <c r="K44" s="96"/>
+      <c r="L44" s="97"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B45" s="95"/>
+      <c r="C45" s="96"/>
+      <c r="D45" s="96"/>
+      <c r="E45" s="96"/>
+      <c r="F45" s="96"/>
+      <c r="G45" s="96"/>
+      <c r="H45" s="96"/>
+      <c r="I45" s="96"/>
+      <c r="J45" s="96"/>
+      <c r="K45" s="96"/>
+      <c r="L45" s="97"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B46" s="95"/>
+      <c r="C46" s="96"/>
+      <c r="D46" s="96"/>
+      <c r="E46" s="96"/>
+      <c r="F46" s="96"/>
+      <c r="G46" s="96"/>
+      <c r="H46" s="96"/>
+      <c r="I46" s="96"/>
+      <c r="J46" s="96"/>
+      <c r="K46" s="96"/>
+      <c r="L46" s="97"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+    </row>
+    <row r="47" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="95"/>
+      <c r="C47" s="96"/>
+      <c r="D47" s="96"/>
+      <c r="E47" s="96"/>
+      <c r="F47" s="96"/>
+      <c r="G47" s="96"/>
+      <c r="H47" s="96"/>
+      <c r="I47" s="96"/>
+      <c r="J47" s="96"/>
+      <c r="K47" s="96"/>
+      <c r="L47" s="97"/>
+      <c r="O47" s="2"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B48" s="6" t="s">
         <v>14</v>
       </c>
@@ -10121,24 +10100,30 @@
         <v>4</v>
       </c>
       <c r="F48" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H48" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G48" s="7" t="s">
+      <c r="I48" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H48" s="7" t="s">
+      <c r="J48" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I48" s="7" t="s">
+      <c r="K48" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J48" s="8" t="s">
+      <c r="L48" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="L48" s="2"/>
-      <c r="M48" s="2"/>
-    </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+    </row>
+    <row r="49" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B49" s="9" t="s">
         <v>15</v>
       </c>
@@ -10152,28 +10137,34 @@
         <v>3</v>
       </c>
       <c r="F49" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G49" s="10">
         <v>2</v>
       </c>
       <c r="H49" s="10">
+        <v>2</v>
+      </c>
+      <c r="I49" s="10">
+        <v>2</v>
+      </c>
+      <c r="J49" s="10">
         <v>24</v>
       </c>
-      <c r="I49" s="11">
-        <f>SUM(I51:I1048554)</f>
-        <v>64</v>
-      </c>
-      <c r="J49" s="12">
-        <f>SUM(J51:J1048553)</f>
-        <v>1333056</v>
-      </c>
-      <c r="L49" s="2" t="s">
+      <c r="K49" s="11">
+        <f>SUM(K51:K1048554)</f>
+        <v>69</v>
+      </c>
+      <c r="L49" s="12">
+        <f>SUM(L51:L1048553)</f>
+        <v>1437201</v>
+      </c>
+      <c r="N49" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="M49" s="2"/>
-    </row>
-    <row r="50" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O49" s="2"/>
+    </row>
+    <row r="50" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B50" s="18"/>
       <c r="C50" s="19" t="s">
         <v>1</v>
@@ -10185,24 +10176,30 @@
         <v>4</v>
       </c>
       <c r="F50" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="G50" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H50" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G50" s="19" t="s">
+      <c r="I50" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="H50" s="19" t="s">
+      <c r="J50" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="I50" s="19" t="s">
+      <c r="K50" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="J50" s="26" t="s">
+      <c r="L50" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="L50" s="2"/>
-      <c r="M50" s="2"/>
-    </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+    </row>
+    <row r="51" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B51" s="27">
         <v>45898</v>
       </c>
@@ -10214,18 +10211,20 @@
       <c r="F51" s="28"/>
       <c r="G51" s="28"/>
       <c r="H51" s="28"/>
-      <c r="I51" s="29">
-        <f t="shared" ref="I51:I82" si="0">SUM(C51:H51)</f>
+      <c r="I51" s="28"/>
+      <c r="J51" s="28"/>
+      <c r="K51" s="29">
+        <f t="shared" ref="K51:K82" si="0">SUM(C51:J51)</f>
         <v>3</v>
       </c>
-      <c r="J51" s="30">
-        <f>I51*20829</f>
+      <c r="L51" s="30">
+        <f>K51*20829</f>
         <v>62487</v>
       </c>
-      <c r="L51" s="2"/>
-      <c r="M51" s="2"/>
-    </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+    </row>
+    <row r="52" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B52" s="13">
         <v>45899</v>
       </c>
@@ -10235,18 +10234,20 @@
       <c r="F52" s="14"/>
       <c r="G52" s="14"/>
       <c r="H52" s="14"/>
-      <c r="I52" s="16">
+      <c r="I52" s="14"/>
+      <c r="J52" s="14"/>
+      <c r="K52" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J52" s="17">
-        <f>I52*20829</f>
+      <c r="L52" s="17">
+        <f>K52*20829</f>
         <v>0</v>
       </c>
-      <c r="L52" s="2"/>
-      <c r="M52" s="2"/>
-    </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+    </row>
+    <row r="53" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B53" s="13">
         <v>45900</v>
       </c>
@@ -10258,18 +10259,20 @@
       <c r="F53" s="14"/>
       <c r="G53" s="14"/>
       <c r="H53" s="14"/>
-      <c r="I53" s="16">
+      <c r="I53" s="14"/>
+      <c r="J53" s="14"/>
+      <c r="K53" s="16">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="J53" s="17">
-        <f t="shared" ref="J53:J79" si="1">I53*20829</f>
+      <c r="L53" s="17">
+        <f t="shared" ref="L53:L79" si="1">K53*20829</f>
         <v>62487</v>
       </c>
-      <c r="L53" s="2"/>
-      <c r="M53" s="2"/>
-    </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+    </row>
+    <row r="54" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B54" s="13">
         <v>45901</v>
       </c>
@@ -10285,18 +10288,20 @@
       <c r="F54" s="14"/>
       <c r="G54" s="14"/>
       <c r="H54" s="14"/>
-      <c r="I54" s="16">
+      <c r="I54" s="14"/>
+      <c r="J54" s="14"/>
+      <c r="K54" s="16">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="J54" s="17">
+      <c r="L54" s="17">
         <f t="shared" si="1"/>
         <v>166632</v>
       </c>
-      <c r="L54" s="2"/>
-      <c r="M54" s="2"/>
-    </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+    </row>
+    <row r="55" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B55" s="13">
         <v>45902</v>
       </c>
@@ -10309,21 +10314,23 @@
       <c r="E55" s="14"/>
       <c r="F55" s="14"/>
       <c r="G55" s="14"/>
-      <c r="H55" s="14">
+      <c r="H55" s="14"/>
+      <c r="I55" s="14"/>
+      <c r="J55" s="14">
         <v>24</v>
       </c>
-      <c r="I55" s="16">
+      <c r="K55" s="16">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="J55" s="17">
+      <c r="L55" s="17">
         <f t="shared" si="1"/>
         <v>604041</v>
       </c>
-      <c r="L55" s="2"/>
-      <c r="M55" s="2"/>
-    </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
+    </row>
+    <row r="56" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B56" s="13">
         <v>45903</v>
       </c>
@@ -10337,18 +10344,20 @@
       <c r="F56" s="14"/>
       <c r="G56" s="14"/>
       <c r="H56" s="14"/>
-      <c r="I56" s="16">
+      <c r="I56" s="14"/>
+      <c r="J56" s="14"/>
+      <c r="K56" s="16">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J56" s="17">
+      <c r="L56" s="17">
         <f t="shared" si="1"/>
         <v>104145</v>
       </c>
-      <c r="L56" s="2"/>
-      <c r="M56" s="2"/>
-    </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
+    </row>
+    <row r="57" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B57" s="13">
         <v>45904</v>
       </c>
@@ -10360,18 +10369,20 @@
       <c r="F57" s="14"/>
       <c r="G57" s="14"/>
       <c r="H57" s="14"/>
-      <c r="I57" s="16">
+      <c r="I57" s="14"/>
+      <c r="J57" s="14"/>
+      <c r="K57" s="16">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="J57" s="17">
+      <c r="L57" s="17">
         <f t="shared" si="1"/>
         <v>62487</v>
       </c>
-      <c r="L57" s="2"/>
-      <c r="M57" s="2"/>
-    </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
+    </row>
+    <row r="58" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B58" s="13">
         <v>45905</v>
       </c>
@@ -10383,18 +10394,20 @@
       <c r="F58" s="14"/>
       <c r="G58" s="14"/>
       <c r="H58" s="14"/>
-      <c r="I58" s="16">
+      <c r="I58" s="14"/>
+      <c r="J58" s="14"/>
+      <c r="K58" s="16">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="J58" s="17">
+      <c r="L58" s="17">
         <f t="shared" si="1"/>
         <v>62487</v>
       </c>
-      <c r="L58" s="2"/>
-      <c r="M58" s="2"/>
-    </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
+    </row>
+    <row r="59" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B59" s="13">
         <v>45906</v>
       </c>
@@ -10404,18 +10417,20 @@
       <c r="F59" s="14"/>
       <c r="G59" s="14"/>
       <c r="H59" s="14"/>
-      <c r="I59" s="16">
+      <c r="I59" s="14"/>
+      <c r="J59" s="14"/>
+      <c r="K59" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J59" s="17">
+      <c r="L59" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L59" s="2"/>
-      <c r="M59" s="2"/>
-    </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
+    </row>
+    <row r="60" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B60" s="13">
         <v>45907</v>
       </c>
@@ -10425,18 +10440,20 @@
       <c r="F60" s="14"/>
       <c r="G60" s="14"/>
       <c r="H60" s="14"/>
-      <c r="I60" s="16">
+      <c r="I60" s="14"/>
+      <c r="J60" s="14"/>
+      <c r="K60" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J60" s="17">
+      <c r="L60" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L60" s="2"/>
-      <c r="M60" s="2"/>
-    </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
+    </row>
+    <row r="61" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B61" s="13">
         <v>45908</v>
       </c>
@@ -10449,21 +10466,27 @@
       <c r="E61" s="14">
         <v>3</v>
       </c>
-      <c r="F61" s="14"/>
-      <c r="G61" s="14"/>
+      <c r="F61" s="14">
+        <v>3</v>
+      </c>
+      <c r="G61" s="14">
+        <v>2</v>
+      </c>
       <c r="H61" s="14"/>
-      <c r="I61" s="16">
+      <c r="I61" s="14"/>
+      <c r="J61" s="14"/>
+      <c r="K61" s="16">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="J61" s="17">
+        <v>13</v>
+      </c>
+      <c r="L61" s="17">
         <f t="shared" si="1"/>
-        <v>166632</v>
-      </c>
-      <c r="L61" s="2"/>
-      <c r="M61" s="2"/>
-    </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.3">
+        <v>270777</v>
+      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
+    </row>
+    <row r="62" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B62" s="13">
         <v>45909</v>
       </c>
@@ -10475,17 +10498,19 @@
       <c r="F62" s="14"/>
       <c r="G62" s="14"/>
       <c r="H62" s="14"/>
-      <c r="I62" s="16">
+      <c r="I62" s="14"/>
+      <c r="J62" s="14"/>
+      <c r="K62" s="16">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J62" s="17">
+      <c r="L62" s="17">
         <f t="shared" si="1"/>
         <v>41658</v>
       </c>
-      <c r="M62" s="2"/>
-    </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="O62" s="2"/>
+    </row>
+    <row r="63" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B63" s="13">
         <v>45910</v>
       </c>
@@ -10495,18 +10520,20 @@
       <c r="F63" s="14"/>
       <c r="G63" s="14"/>
       <c r="H63" s="14"/>
-      <c r="I63" s="16">
+      <c r="I63" s="14"/>
+      <c r="J63" s="14"/>
+      <c r="K63" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J63" s="17">
+      <c r="L63" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L63" s="2"/>
-      <c r="M63" s="2"/>
-    </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
+    </row>
+    <row r="64" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B64" s="13">
         <v>45911</v>
       </c>
@@ -10516,18 +10543,20 @@
       <c r="F64" s="14"/>
       <c r="G64" s="14"/>
       <c r="H64" s="14"/>
-      <c r="I64" s="16">
+      <c r="I64" s="14"/>
+      <c r="J64" s="14"/>
+      <c r="K64" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J64" s="17">
+      <c r="L64" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L64" s="2"/>
-      <c r="M64" s="2"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B65" s="13">
         <v>45912</v>
       </c>
@@ -10537,18 +10566,20 @@
       <c r="F65" s="14"/>
       <c r="G65" s="14"/>
       <c r="H65" s="14"/>
-      <c r="I65" s="16">
+      <c r="I65" s="14"/>
+      <c r="J65" s="14"/>
+      <c r="K65" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J65" s="17">
+      <c r="L65" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L65" s="2"/>
-      <c r="M65" s="2"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B66" s="13">
         <v>45913</v>
       </c>
@@ -10558,18 +10589,20 @@
       <c r="F66" s="14"/>
       <c r="G66" s="14"/>
       <c r="H66" s="14"/>
-      <c r="I66" s="16">
+      <c r="I66" s="14"/>
+      <c r="J66" s="14"/>
+      <c r="K66" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J66" s="17">
+      <c r="L66" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L66" s="2"/>
-      <c r="M66" s="2"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B67" s="13">
         <v>45914</v>
       </c>
@@ -10579,19 +10612,21 @@
       <c r="F67" s="14"/>
       <c r="G67" s="14"/>
       <c r="H67" s="14"/>
-      <c r="I67" s="16">
+      <c r="I67" s="14"/>
+      <c r="J67" s="14"/>
+      <c r="K67" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J67" s="17">
+      <c r="L67" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K67" s="4"/>
-      <c r="L67" s="5"/>
-      <c r="M67" s="2"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="M67" s="4"/>
+      <c r="N67" s="5"/>
+      <c r="O67" s="2"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B68" s="13">
         <v>45915</v>
       </c>
@@ -10601,18 +10636,20 @@
       <c r="F68" s="14"/>
       <c r="G68" s="14"/>
       <c r="H68" s="14"/>
-      <c r="I68" s="16">
+      <c r="I68" s="14"/>
+      <c r="J68" s="14"/>
+      <c r="K68" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J68" s="17">
+      <c r="L68" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L68" s="2"/>
-      <c r="M68" s="2"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B69" s="13">
         <v>45916</v>
       </c>
@@ -10622,16 +10659,18 @@
       <c r="F69" s="14"/>
       <c r="G69" s="14"/>
       <c r="H69" s="14"/>
-      <c r="I69" s="16">
+      <c r="I69" s="14"/>
+      <c r="J69" s="14"/>
+      <c r="K69" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J69" s="17">
+      <c r="L69" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B70" s="13">
         <v>45917</v>
       </c>
@@ -10641,16 +10680,18 @@
       <c r="F70" s="14"/>
       <c r="G70" s="14"/>
       <c r="H70" s="14"/>
-      <c r="I70" s="16">
+      <c r="I70" s="14"/>
+      <c r="J70" s="14"/>
+      <c r="K70" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J70" s="17">
+      <c r="L70" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B71" s="13">
         <v>45918</v>
       </c>
@@ -10660,16 +10701,18 @@
       <c r="F71" s="14"/>
       <c r="G71" s="14"/>
       <c r="H71" s="14"/>
-      <c r="I71" s="16">
+      <c r="I71" s="14"/>
+      <c r="J71" s="14"/>
+      <c r="K71" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J71" s="17">
+      <c r="L71" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B72" s="13">
         <v>45919</v>
       </c>
@@ -10679,16 +10722,18 @@
       <c r="F72" s="14"/>
       <c r="G72" s="14"/>
       <c r="H72" s="14"/>
-      <c r="I72" s="16">
+      <c r="I72" s="14"/>
+      <c r="J72" s="14"/>
+      <c r="K72" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J72" s="17">
+      <c r="L72" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B73" s="13">
         <v>45920</v>
       </c>
@@ -10698,16 +10743,18 @@
       <c r="F73" s="14"/>
       <c r="G73" s="14"/>
       <c r="H73" s="14"/>
-      <c r="I73" s="16">
+      <c r="I73" s="14"/>
+      <c r="J73" s="14"/>
+      <c r="K73" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J73" s="17">
+      <c r="L73" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B74" s="13">
         <v>45921</v>
       </c>
@@ -10717,16 +10764,18 @@
       <c r="F74" s="14"/>
       <c r="G74" s="14"/>
       <c r="H74" s="14"/>
-      <c r="I74" s="16">
+      <c r="I74" s="14"/>
+      <c r="J74" s="14"/>
+      <c r="K74" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J74" s="17">
+      <c r="L74" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B75" s="13">
         <v>45922</v>
       </c>
@@ -10736,16 +10785,18 @@
       <c r="F75" s="14"/>
       <c r="G75" s="14"/>
       <c r="H75" s="14"/>
-      <c r="I75" s="16">
+      <c r="I75" s="14"/>
+      <c r="J75" s="14"/>
+      <c r="K75" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J75" s="17">
+      <c r="L75" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B76" s="13">
         <v>45923</v>
       </c>
@@ -10755,16 +10806,18 @@
       <c r="F76" s="14"/>
       <c r="G76" s="14"/>
       <c r="H76" s="14"/>
-      <c r="I76" s="16">
+      <c r="I76" s="14"/>
+      <c r="J76" s="14"/>
+      <c r="K76" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J76" s="17">
+      <c r="L76" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B77" s="13">
         <v>45924</v>
       </c>
@@ -10774,16 +10827,18 @@
       <c r="F77" s="14"/>
       <c r="G77" s="14"/>
       <c r="H77" s="14"/>
-      <c r="I77" s="16">
+      <c r="I77" s="14"/>
+      <c r="J77" s="14"/>
+      <c r="K77" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J77" s="17">
+      <c r="L77" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B78" s="13">
         <v>45925</v>
       </c>
@@ -10793,94 +10848,98 @@
       <c r="F78" s="14"/>
       <c r="G78" s="14"/>
       <c r="H78" s="14"/>
-      <c r="I78" s="16">
+      <c r="I78" s="14"/>
+      <c r="J78" s="14"/>
+      <c r="K78" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J78" s="17">
+      <c r="L78" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B79" s="13">
         <v>45926</v>
       </c>
       <c r="C79" s="14"/>
       <c r="D79" s="14"/>
       <c r="E79" s="14"/>
-      <c r="F79" s="14"/>
-      <c r="G79" s="14"/>
+      <c r="F79" s="19"/>
+      <c r="G79" s="19"/>
       <c r="H79" s="14"/>
-      <c r="I79" s="16">
+      <c r="I79" s="14"/>
+      <c r="J79" s="14"/>
+      <c r="K79" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J79" s="17">
+      <c r="L79" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B80" s="13">
         <v>45927</v>
       </c>
       <c r="C80" s="14"/>
       <c r="D80" s="14"/>
       <c r="E80" s="14"/>
-      <c r="F80" s="14"/>
-      <c r="G80" s="14"/>
       <c r="H80" s="14"/>
-      <c r="I80" s="16">
+      <c r="I80" s="14"/>
+      <c r="J80" s="14"/>
+      <c r="K80" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J80" s="17">
-        <f t="shared" ref="J80:J82" si="2">I80*20829</f>
+      <c r="L80" s="17">
+        <f t="shared" ref="L80:L82" si="2">K80*20829</f>
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B81" s="13">
         <v>45928</v>
       </c>
       <c r="C81" s="14"/>
       <c r="D81" s="14"/>
       <c r="E81" s="14"/>
-      <c r="F81" s="14"/>
-      <c r="G81" s="14"/>
       <c r="H81" s="14"/>
-      <c r="I81" s="16">
+      <c r="I81" s="14"/>
+      <c r="J81" s="14"/>
+      <c r="K81" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J81" s="17">
+      <c r="L81" s="17">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B82" s="18">
         <v>45929</v>
       </c>
       <c r="C82" s="19"/>
       <c r="D82" s="19"/>
       <c r="E82" s="19"/>
-      <c r="F82" s="19"/>
-      <c r="G82" s="19"/>
       <c r="H82" s="19"/>
-      <c r="I82" s="20">
+      <c r="I82" s="19"/>
+      <c r="J82" s="19"/>
+      <c r="K82" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J82" s="21">
+      <c r="L82" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:J47"/>
+    <mergeCell ref="B2:L47"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
